--- a/芳文社漫改作品销量.xlsx
+++ b/芳文社漫改作品销量.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="569">
   <si>
     <t>番组名</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -2022,10 +2022,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>9.26发售</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -2265,7 +2261,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>芳文社漫改动画销量统计（截止20180924付周榜）by芳文社吧@CYB589</t>
+    <t>初动128位</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>初动124位</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26发售</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳文社漫改动画销量统计（截止20181126付周榜）by芳文社吧@CYB589</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3289,7 +3301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3808,6 +3820,105 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3817,105 +3928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4006,6 +4018,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4015,24 +4054,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4051,15 +4072,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4067,6 +4079,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4419,11 +4443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194390016"/>
-        <c:axId val="194191360"/>
+        <c:axId val="198081536"/>
+        <c:axId val="197861376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194390016"/>
+        <c:axId val="198081536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194191360"/>
+        <c:crossAx val="197861376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +4464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194191360"/>
+        <c:axId val="197861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194390016"/>
+        <c:crossAx val="198081536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4716,11 +4740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157135360"/>
-        <c:axId val="194196544"/>
+        <c:axId val="133120512"/>
+        <c:axId val="197866560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157135360"/>
+        <c:axId val="133120512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,7 +4753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194196544"/>
+        <c:crossAx val="197866560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4737,7 +4761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194196544"/>
+        <c:axId val="197866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4748,7 +4772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157135360"/>
+        <c:crossAx val="133120512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4956,11 +4980,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="157136384"/>
-        <c:axId val="194198848"/>
+        <c:axId val="133121536"/>
+        <c:axId val="197868864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157136384"/>
+        <c:axId val="133121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,7 +4993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194198848"/>
+        <c:crossAx val="197868864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4977,7 +5001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194198848"/>
+        <c:axId val="197868864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,7 +5012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157136384"/>
+        <c:crossAx val="133121536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5176,11 +5200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157136896"/>
-        <c:axId val="193980096"/>
+        <c:axId val="133122048"/>
+        <c:axId val="197715648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157136896"/>
+        <c:axId val="133122048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193980096"/>
+        <c:crossAx val="197715648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5197,7 +5221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193980096"/>
+        <c:axId val="197715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +5232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157136896"/>
+        <c:crossAx val="133122048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5349,11 +5373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157138432"/>
-        <c:axId val="193982400"/>
+        <c:axId val="133123584"/>
+        <c:axId val="197717952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157138432"/>
+        <c:axId val="133123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193982400"/>
+        <c:crossAx val="197717952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5370,7 +5394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193982400"/>
+        <c:axId val="197717952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,7 +5405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157138432"/>
+        <c:crossAx val="133123584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6187,11 +6211,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="157336576"/>
-        <c:axId val="193984128"/>
+        <c:axId val="133719040"/>
+        <c:axId val="197719680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157336576"/>
+        <c:axId val="133719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6200,7 +6224,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193984128"/>
+        <c:crossAx val="197719680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6208,7 +6232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193984128"/>
+        <c:axId val="197719680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6219,7 +6243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157336576"/>
+        <c:crossAx val="133719040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7320,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R112" sqref="R112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7345,40 +7369,40 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="18" customHeight="1">
-      <c r="B2" s="208" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
+      <c r="B2" s="195" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="197"/>
     </row>
     <row r="3" spans="1:24" ht="16.2" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="200"/>
       <c r="R3" t="s">
         <v>84</v>
       </c>
@@ -7389,13 +7413,13 @@
         <v>81</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W3" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -7470,13 +7494,13 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="68"/>
-      <c r="B5" s="183">
+      <c r="B5" s="184">
         <v>2009.4</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="195">
+      <c r="D5" s="187">
         <v>57971</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -7513,7 +7537,7 @@
       <c r="O5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="192">
+      <c r="P5" s="181">
         <v>14088</v>
       </c>
     </row>
@@ -7521,9 +7545,9 @@
       <c r="A6" s="61">
         <v>1</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="188"/>
       <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
@@ -7557,16 +7581,16 @@
       <c r="O6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="193"/>
+      <c r="P6" s="182"/>
       <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="68" t="s">
-        <v>498</v>
-      </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="197"/>
+        <v>497</v>
+      </c>
+      <c r="B7" s="186"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
@@ -7605,17 +7629,17 @@
       <c r="O7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="194"/>
+      <c r="P7" s="183"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="68"/>
-      <c r="B8" s="183">
+      <c r="B8" s="184">
         <v>2010.4</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="195">
+      <c r="D8" s="187">
         <v>49422</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -7652,15 +7676,15 @@
       <c r="O8" s="4">
         <v>36004</v>
       </c>
-      <c r="P8" s="192">
+      <c r="P8" s="181">
         <v>10037</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="61"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="196"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="188"/>
       <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
@@ -7694,14 +7718,14 @@
       <c r="O9" s="5">
         <v>5042</v>
       </c>
-      <c r="P9" s="193"/>
+      <c r="P9" s="182"/>
       <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="68"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
@@ -7739,17 +7763,17 @@
         <f>SUM(O8:O9)</f>
         <v>41046</v>
       </c>
-      <c r="P10" s="194"/>
+      <c r="P10" s="183"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="68"/>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="195">
+      <c r="D11" s="187">
         <v>15163</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -7786,7 +7810,7 @@
       <c r="O11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="192">
+      <c r="P11" s="181">
         <v>2663</v>
       </c>
     </row>
@@ -7794,9 +7818,9 @@
       <c r="A12" s="61">
         <v>2</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="196"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="188"/>
       <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
@@ -7831,16 +7855,16 @@
       <c r="O12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="193"/>
+      <c r="P12" s="182"/>
       <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="196"/>
+        <v>499</v>
+      </c>
+      <c r="B13" s="185"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="107" t="s">
         <v>50</v>
       </c>
@@ -7881,17 +7905,17 @@
       <c r="O13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="193"/>
+      <c r="P13" s="182"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="68"/>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="190" t="s">
         <v>366</v>
       </c>
-      <c r="D14" s="187">
+      <c r="D14" s="193">
         <v>14062</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -7928,15 +7952,15 @@
       <c r="O14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="192"/>
+      <c r="P14" s="181"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="61">
         <v>3</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="214"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
@@ -7971,16 +7995,16 @@
       <c r="O15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="193"/>
+      <c r="P15" s="182"/>
       <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" s="190"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="215"/>
+        <v>515</v>
+      </c>
+      <c r="B16" s="186"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="202"/>
       <c r="E16" s="11" t="s">
         <v>50</v>
       </c>
@@ -8018,17 +8042,17 @@
       <c r="O16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="194"/>
+      <c r="P16" s="183"/>
     </row>
     <row r="17" spans="1:21" ht="14.4" customHeight="1">
       <c r="A17" s="61"/>
-      <c r="B17" s="183">
+      <c r="B17" s="184">
         <v>2014.4</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="195">
+      <c r="D17" s="187">
         <v>13585</v>
       </c>
       <c r="E17" s="106" t="s">
@@ -8065,15 +8089,15 @@
       <c r="O17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="192">
+      <c r="P17" s="181">
         <v>2450</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.4" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="188"/>
       <c r="E18" s="107" t="s">
         <v>17</v>
       </c>
@@ -8108,14 +8132,14 @@
       <c r="O18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="193"/>
+      <c r="P18" s="182"/>
       <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:21" ht="14.4" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="197"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="189"/>
       <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
@@ -8156,17 +8180,17 @@
       <c r="O19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="194"/>
+      <c r="P19" s="183"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="61"/>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="185" t="s">
+      <c r="C20" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="195">
+      <c r="D20" s="187">
         <v>12744</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -8186,7 +8210,7 @@
       <c r="O20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="192">
+      <c r="P20" s="181">
         <v>4623</v>
       </c>
     </row>
@@ -8194,9 +8218,9 @@
       <c r="A21" s="61">
         <v>4</v>
       </c>
-      <c r="B21" s="184"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
@@ -8231,16 +8255,16 @@
       <c r="O21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="193"/>
+      <c r="P21" s="182"/>
       <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="196"/>
+        <v>502</v>
+      </c>
+      <c r="B22" s="185"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="188"/>
       <c r="E22" s="170" t="s">
         <v>50</v>
       </c>
@@ -8275,17 +8299,17 @@
       <c r="O22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="193"/>
+      <c r="P22" s="182"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="61"/>
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="195">
+      <c r="D23" s="187">
         <v>11122</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -8322,15 +8346,15 @@
       <c r="O23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="192">
+      <c r="P23" s="181">
         <v>2610</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="61"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="196"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="188"/>
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
@@ -8365,14 +8389,14 @@
       <c r="O24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="193"/>
+      <c r="P24" s="182"/>
       <c r="Q24" s="21"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="61"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="197"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="189"/>
       <c r="E25" s="14" t="s">
         <v>50</v>
       </c>
@@ -8413,17 +8437,17 @@
       <c r="O25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="194"/>
+      <c r="P25" s="183"/>
     </row>
     <row r="26" spans="1:21" ht="14.4" customHeight="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="183" t="s">
+      <c r="B26" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="195">
+      <c r="D26" s="187">
         <v>10537</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -8445,15 +8469,15 @@
       <c r="O26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="192">
+      <c r="P26" s="181">
         <v>4651</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.4" customHeight="1">
       <c r="A27" s="61"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="196"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="188"/>
       <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
@@ -8488,14 +8512,14 @@
       <c r="O27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P27" s="193"/>
+      <c r="P27" s="182"/>
       <c r="Q27" s="21"/>
     </row>
     <row r="28" spans="1:21" ht="14.4" customHeight="1">
       <c r="A28" s="61"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="197"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="14" t="s">
         <v>50</v>
       </c>
@@ -8529,17 +8553,17 @@
       <c r="O28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="194"/>
+      <c r="P28" s="183"/>
     </row>
     <row r="29" spans="1:21" ht="14.4" customHeight="1">
       <c r="A29" s="61"/>
-      <c r="B29" s="183" t="s">
+      <c r="B29" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="185" t="s">
-        <v>505</v>
-      </c>
-      <c r="D29" s="195">
+      <c r="C29" s="190" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="187">
         <v>9573</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -8576,15 +8600,15 @@
       <c r="O29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="192">
+      <c r="P29" s="181">
         <v>2157</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.4" customHeight="1">
       <c r="A30" s="61"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="196"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="188"/>
       <c r="E30" s="13" t="s">
         <v>26</v>
       </c>
@@ -8619,23 +8643,23 @@
       <c r="O30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="193"/>
+      <c r="P30" s="182"/>
       <c r="Q30" s="21"/>
       <c r="S30" t="s">
+        <v>535</v>
+      </c>
+      <c r="T30" t="s">
         <v>536</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>537</v>
-      </c>
-      <c r="U30" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.4" customHeight="1">
       <c r="A31" s="61"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="197"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="189"/>
       <c r="E31" s="14" t="s">
         <v>50</v>
       </c>
@@ -8676,9 +8700,9 @@
       <c r="O31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="194"/>
+      <c r="P31" s="183"/>
       <c r="S31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T31">
         <v>30</v>
@@ -8689,13 +8713,13 @@
     </row>
     <row r="32" spans="1:21" ht="14.4" customHeight="1">
       <c r="A32" s="61"/>
-      <c r="B32" s="183" t="s">
+      <c r="B32" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="195">
+      <c r="D32" s="187">
         <v>8503</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -8732,7 +8756,7 @@
       <c r="O32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="192">
+      <c r="P32" s="181">
         <v>1921</v>
       </c>
     </row>
@@ -8740,9 +8764,9 @@
       <c r="A33" s="61">
         <v>5</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="196"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="188"/>
       <c r="E33" s="13" t="s">
         <v>26</v>
       </c>
@@ -8769,16 +8793,16 @@
       <c r="O33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="193"/>
+      <c r="P33" s="182"/>
       <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17" ht="14.4" customHeight="1">
       <c r="A34" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="197"/>
+        <v>499</v>
+      </c>
+      <c r="B34" s="186"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="189"/>
       <c r="E34" s="14" t="s">
         <v>50</v>
       </c>
@@ -8816,17 +8840,17 @@
       <c r="O34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="194"/>
+      <c r="P34" s="183"/>
     </row>
     <row r="35" spans="1:17" ht="14.4" customHeight="1">
       <c r="A35" s="61"/>
-      <c r="B35" s="183" t="s">
+      <c r="B35" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="185" t="s">
-        <v>507</v>
-      </c>
-      <c r="D35" s="195">
+      <c r="C35" s="190" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="187">
         <v>7804</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -8847,7 +8871,7 @@
       <c r="O35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P35" s="192">
+      <c r="P35" s="181">
         <v>3160</v>
       </c>
     </row>
@@ -8855,9 +8879,9 @@
       <c r="A36" s="61">
         <v>6</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="196"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="188"/>
       <c r="E36" s="13" t="s">
         <v>26</v>
       </c>
@@ -8892,16 +8916,16 @@
       <c r="O36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P36" s="193"/>
+      <c r="P36" s="182"/>
       <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="1:17" ht="14.4" customHeight="1">
       <c r="A37" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B37" s="190"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="197"/>
+        <v>501</v>
+      </c>
+      <c r="B37" s="186"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="189"/>
       <c r="E37" s="14" t="s">
         <v>50</v>
       </c>
@@ -8935,17 +8959,17 @@
       <c r="O37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P37" s="194"/>
+      <c r="P37" s="183"/>
     </row>
     <row r="38" spans="1:17" ht="14.4" customHeight="1">
       <c r="A38" s="61"/>
-      <c r="B38" s="183" t="s">
+      <c r="B38" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="185" t="s">
-        <v>509</v>
-      </c>
-      <c r="D38" s="195">
+      <c r="C38" s="190" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" s="187">
         <v>7301</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -8982,7 +9006,7 @@
       <c r="O38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P38" s="192">
+      <c r="P38" s="181">
         <v>4219</v>
       </c>
     </row>
@@ -8990,9 +9014,9 @@
       <c r="A39" s="61">
         <v>7</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="196"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="188"/>
       <c r="E39" s="13" t="s">
         <v>26</v>
       </c>
@@ -9012,16 +9036,16 @@
       <c r="O39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="193"/>
+      <c r="P39" s="182"/>
       <c r="Q39" s="21"/>
     </row>
     <row r="40" spans="1:17" ht="14.4" customHeight="1">
       <c r="A40" s="61" t="s">
-        <v>498</v>
-      </c>
-      <c r="B40" s="190"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="197"/>
+        <v>497</v>
+      </c>
+      <c r="B40" s="186"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="189"/>
       <c r="E40" s="14" t="s">
         <v>50</v>
       </c>
@@ -9056,17 +9080,17 @@
       <c r="O40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P40" s="194"/>
+      <c r="P40" s="183"/>
     </row>
     <row r="41" spans="1:17" ht="14.4" customHeight="1">
       <c r="A41" s="61"/>
-      <c r="B41" s="183" t="s">
+      <c r="B41" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="195">
+      <c r="D41" s="187">
         <v>6734</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -9103,7 +9127,7 @@
       <c r="O41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P41" s="192">
+      <c r="P41" s="181">
         <v>5741</v>
       </c>
     </row>
@@ -9111,9 +9135,9 @@
       <c r="A42" s="61">
         <v>8</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="196"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="188"/>
       <c r="E42" s="13" t="s">
         <v>26</v>
       </c>
@@ -9137,16 +9161,16 @@
       <c r="O42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P42" s="193"/>
+      <c r="P42" s="182"/>
       <c r="Q42" s="21"/>
     </row>
     <row r="43" spans="1:17" ht="14.4" customHeight="1">
       <c r="A43" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="197"/>
+        <v>501</v>
+      </c>
+      <c r="B43" s="186"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="189"/>
       <c r="E43" s="14" t="s">
         <v>50</v>
       </c>
@@ -9181,17 +9205,17 @@
       <c r="O43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P43" s="194"/>
+      <c r="P43" s="183"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="61"/>
-      <c r="B44" s="183" t="s">
+      <c r="B44" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="185" t="s">
-        <v>511</v>
-      </c>
-      <c r="D44" s="195">
+      <c r="C44" s="190" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="187">
         <v>6623</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -9228,7 +9252,7 @@
       <c r="O44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P44" s="205">
+      <c r="P44" s="203">
         <v>1334</v>
       </c>
     </row>
@@ -9236,9 +9260,9 @@
       <c r="A45" s="61">
         <v>9</v>
       </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="196"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="188"/>
       <c r="E45" s="13" t="s">
         <v>17</v>
       </c>
@@ -9271,16 +9295,16 @@
       <c r="O45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P45" s="206"/>
+      <c r="P45" s="204"/>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B46" s="190"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="197"/>
+        <v>501</v>
+      </c>
+      <c r="B46" s="186"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="189"/>
       <c r="E46" s="14" t="s">
         <v>50</v>
       </c>
@@ -9320,17 +9344,17 @@
       <c r="O46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="207"/>
+      <c r="P46" s="205"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="61"/>
-      <c r="B47" s="183" t="s">
+      <c r="B47" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="185" t="s">
-        <v>513</v>
-      </c>
-      <c r="D47" s="195">
+      <c r="C47" s="190" t="s">
+        <v>512</v>
+      </c>
+      <c r="D47" s="187">
         <v>5864</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -9367,15 +9391,15 @@
       <c r="O47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="192"/>
+      <c r="P47" s="181"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="61">
         <v>10</v>
       </c>
-      <c r="B48" s="184"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="196"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="188"/>
       <c r="E48" s="13" t="s">
         <v>26</v>
       </c>
@@ -9408,16 +9432,16 @@
       <c r="O48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P48" s="193"/>
+      <c r="P48" s="182"/>
       <c r="Q48" s="21"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B49" s="190"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="197"/>
+        <v>501</v>
+      </c>
+      <c r="B49" s="186"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="189"/>
       <c r="E49" s="14" t="s">
         <v>50</v>
       </c>
@@ -9457,17 +9481,17 @@
       <c r="O49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P49" s="194"/>
+      <c r="P49" s="183"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="61"/>
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="185" t="s">
+      <c r="C50" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="195">
+      <c r="D50" s="187">
         <v>5094</v>
       </c>
       <c r="E50" s="12" t="s">
@@ -9504,13 +9528,13 @@
       <c r="O50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P50" s="192"/>
+      <c r="P50" s="181"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="61"/>
-      <c r="B51" s="184"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="196"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="188"/>
       <c r="E51" s="13" t="s">
         <v>17</v>
       </c>
@@ -9537,14 +9561,14 @@
       <c r="O51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P51" s="193"/>
+      <c r="P51" s="182"/>
       <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="61"/>
-      <c r="B52" s="190"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="197"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="189"/>
       <c r="E52" s="14" t="s">
         <v>50</v>
       </c>
@@ -9581,17 +9605,17 @@
       <c r="O52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P52" s="194"/>
+      <c r="P52" s="183"/>
     </row>
     <row r="53" spans="1:17" ht="14.4" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="183" t="s">
+      <c r="B53" s="184" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="185" t="s">
+      <c r="C53" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="187">
+      <c r="D53" s="193">
         <v>3636</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -9628,15 +9652,15 @@
       <c r="O53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="192"/>
+      <c r="P53" s="181"/>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1">
       <c r="A54" s="61"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="186" t="s">
+      <c r="B54" s="185"/>
+      <c r="C54" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="188"/>
+      <c r="D54" s="194"/>
       <c r="E54" s="10" t="s">
         <v>17</v>
       </c>
@@ -9669,14 +9693,14 @@
       <c r="O54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P54" s="193"/>
+      <c r="P54" s="182"/>
       <c r="Q54" s="21"/>
     </row>
     <row r="55" spans="1:17" ht="14.4" customHeight="1">
       <c r="A55" s="61"/>
-      <c r="B55" s="184"/>
-      <c r="C55" s="186"/>
-      <c r="D55" s="188"/>
+      <c r="B55" s="185"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="194"/>
       <c r="E55" s="10" t="s">
         <v>50</v>
       </c>
@@ -9714,17 +9738,17 @@
       <c r="O55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P55" s="193"/>
+      <c r="P55" s="182"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="61"/>
-      <c r="B56" s="183" t="s">
+      <c r="B56" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="195">
+      <c r="D56" s="187">
         <v>3508</v>
       </c>
       <c r="E56" s="12" t="s">
@@ -9761,15 +9785,15 @@
       <c r="O56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P56" s="192"/>
+      <c r="P56" s="181"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="61">
         <v>11</v>
       </c>
-      <c r="B57" s="184"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="196"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="191"/>
+      <c r="D57" s="188"/>
       <c r="E57" s="13" t="s">
         <v>17</v>
       </c>
@@ -9796,16 +9820,16 @@
       <c r="O57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P57" s="193"/>
+      <c r="P57" s="182"/>
       <c r="Q57" s="21"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B58" s="190"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="197"/>
+        <v>515</v>
+      </c>
+      <c r="B58" s="186"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="189"/>
       <c r="E58" s="14" t="s">
         <v>50</v>
       </c>
@@ -9842,17 +9866,17 @@
       <c r="O58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P58" s="194"/>
+      <c r="P58" s="183"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="61"/>
-      <c r="B59" s="183">
+      <c r="B59" s="184">
         <v>2013.7</v>
       </c>
-      <c r="C59" s="185" t="s">
+      <c r="C59" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="187">
         <v>3205</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -9889,15 +9913,15 @@
       <c r="O59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P59" s="192"/>
+      <c r="P59" s="181"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="61">
         <v>12</v>
       </c>
-      <c r="B60" s="184"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="196"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="188"/>
       <c r="E60" s="13" t="s">
         <v>17</v>
       </c>
@@ -9919,14 +9943,14 @@
       <c r="O60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P60" s="193"/>
+      <c r="P60" s="182"/>
       <c r="Q60" s="21"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="61"/>
-      <c r="B61" s="190"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="197"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="189"/>
       <c r="E61" s="14" t="s">
         <v>50</v>
       </c>
@@ -9962,17 +9986,17 @@
       <c r="O61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="194"/>
+      <c r="P61" s="183"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="61"/>
-      <c r="B62" s="183" t="s">
+      <c r="B62" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="185" t="s">
+      <c r="C62" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="187">
+      <c r="D62" s="193">
         <v>3167</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -10009,17 +10033,17 @@
       <c r="O62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="192"/>
+      <c r="P62" s="181"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="61">
         <v>13</v>
       </c>
-      <c r="B63" s="184"/>
-      <c r="C63" s="186" t="s">
+      <c r="B63" s="185"/>
+      <c r="C63" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="188"/>
+      <c r="D63" s="194"/>
       <c r="E63" s="10" t="s">
         <v>17</v>
       </c>
@@ -10054,16 +10078,16 @@
       <c r="O63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P63" s="193"/>
+      <c r="P63" s="182"/>
       <c r="Q63" s="21"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B64" s="190"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="188"/>
+        <v>501</v>
+      </c>
+      <c r="B64" s="186"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="194"/>
       <c r="E64" s="11" t="s">
         <v>50</v>
       </c>
@@ -10104,17 +10128,17 @@
       <c r="O64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P64" s="194"/>
+      <c r="P64" s="183"/>
     </row>
     <row r="65" spans="1:17" ht="14.4" customHeight="1">
       <c r="A65" s="61"/>
-      <c r="B65" s="183" t="s">
+      <c r="B65" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="185" t="s">
+      <c r="C65" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="195">
+      <c r="D65" s="187">
         <v>2851</v>
       </c>
       <c r="E65" s="12" t="s">
@@ -10151,15 +10175,15 @@
       <c r="O65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P65" s="192"/>
+      <c r="P65" s="181"/>
     </row>
     <row r="66" spans="1:17" ht="14.4" customHeight="1">
       <c r="A66" s="61">
         <v>14</v>
       </c>
-      <c r="B66" s="184"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="196"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="191"/>
+      <c r="D66" s="188"/>
       <c r="E66" s="13" t="s">
         <v>17</v>
       </c>
@@ -10181,16 +10205,16 @@
       <c r="O66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P66" s="193"/>
+      <c r="P66" s="182"/>
       <c r="Q66" s="21"/>
     </row>
     <row r="67" spans="1:17" ht="14.4" customHeight="1">
       <c r="A67" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B67" s="190"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="197"/>
+        <v>515</v>
+      </c>
+      <c r="B67" s="186"/>
+      <c r="C67" s="192"/>
+      <c r="D67" s="189"/>
       <c r="E67" s="14" t="s">
         <v>50</v>
       </c>
@@ -10226,17 +10250,17 @@
       <c r="O67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P67" s="194"/>
+      <c r="P67" s="183"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="61"/>
-      <c r="B68" s="183">
+      <c r="B68" s="184">
         <v>2014.1</v>
       </c>
-      <c r="C68" s="185" t="s">
+      <c r="C68" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="195">
+      <c r="D68" s="187">
         <v>2838</v>
       </c>
       <c r="E68" s="12" t="s">
@@ -10273,7 +10297,7 @@
       <c r="O68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P68" s="192">
+      <c r="P68" s="181">
         <v>728</v>
       </c>
     </row>
@@ -10281,9 +10305,9 @@
       <c r="A69" s="61">
         <v>15</v>
       </c>
-      <c r="B69" s="184"/>
-      <c r="C69" s="186"/>
-      <c r="D69" s="196"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="188"/>
       <c r="E69" s="13" t="s">
         <v>17</v>
       </c>
@@ -10312,16 +10336,16 @@
       <c r="O69" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P69" s="193"/>
+      <c r="P69" s="182"/>
       <c r="Q69" s="21"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="B70" s="190"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="197"/>
+        <v>518</v>
+      </c>
+      <c r="B70" s="186"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="189"/>
       <c r="E70" s="14" t="s">
         <v>50</v>
       </c>
@@ -10359,17 +10383,17 @@
       <c r="O70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P70" s="194"/>
+      <c r="P70" s="183"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="61"/>
-      <c r="B71" s="183" t="s">
+      <c r="B71" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="185" t="s">
-        <v>533</v>
-      </c>
-      <c r="D71" s="187">
+      <c r="C71" s="190" t="s">
+        <v>532</v>
+      </c>
+      <c r="D71" s="193">
         <v>2802</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -10406,7 +10430,7 @@
       <c r="O71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="192">
+      <c r="P71" s="181">
         <v>376</v>
       </c>
     </row>
@@ -10414,9 +10438,9 @@
       <c r="A72" s="61">
         <v>16</v>
       </c>
-      <c r="B72" s="184"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="188"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="191"/>
+      <c r="D72" s="194"/>
       <c r="E72" s="10" t="s">
         <v>17</v>
       </c>
@@ -10445,16 +10469,16 @@
       <c r="O72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P72" s="193"/>
+      <c r="P72" s="182"/>
       <c r="Q72" s="21"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="61" t="s">
-        <v>517</v>
-      </c>
-      <c r="B73" s="190"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="189"/>
+        <v>516</v>
+      </c>
+      <c r="B73" s="186"/>
+      <c r="C73" s="192"/>
+      <c r="D73" s="206"/>
       <c r="E73" s="11" t="s">
         <v>50</v>
       </c>
@@ -10491,17 +10515,17 @@
       <c r="O73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P73" s="194"/>
+      <c r="P73" s="183"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="61"/>
-      <c r="B74" s="183" t="s">
+      <c r="B74" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="185" t="s">
+      <c r="C74" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="187">
+      <c r="D74" s="193">
         <v>2748</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -10538,7 +10562,7 @@
       <c r="O74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P74" s="192">
+      <c r="P74" s="181">
         <v>524</v>
       </c>
     </row>
@@ -10546,9 +10570,9 @@
       <c r="A75" s="61">
         <v>17</v>
       </c>
-      <c r="B75" s="184"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="188"/>
+      <c r="B75" s="185"/>
+      <c r="C75" s="191"/>
+      <c r="D75" s="194"/>
       <c r="E75" s="10" t="s">
         <v>17</v>
       </c>
@@ -10583,16 +10607,16 @@
       <c r="O75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P75" s="193"/>
+      <c r="P75" s="182"/>
       <c r="Q75" s="21"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="B76" s="190"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="189"/>
+        <v>496</v>
+      </c>
+      <c r="B76" s="186"/>
+      <c r="C76" s="192"/>
+      <c r="D76" s="206"/>
       <c r="E76" s="11" t="s">
         <v>50</v>
       </c>
@@ -10633,17 +10657,17 @@
       <c r="O76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P76" s="194"/>
+      <c r="P76" s="183"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="61"/>
-      <c r="B77" s="183" t="s">
+      <c r="B77" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="185" t="s">
-        <v>522</v>
-      </c>
-      <c r="D77" s="187">
+      <c r="C77" s="190" t="s">
+        <v>521</v>
+      </c>
+      <c r="D77" s="193">
         <v>2099</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -10680,15 +10704,15 @@
       <c r="O77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P77" s="192"/>
+      <c r="P77" s="181"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="61">
         <v>18</v>
       </c>
-      <c r="B78" s="184"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="188"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="191"/>
+      <c r="D78" s="194"/>
       <c r="E78" s="10" t="s">
         <v>17</v>
       </c>
@@ -10721,16 +10745,16 @@
       <c r="O78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P78" s="193"/>
+      <c r="P78" s="182"/>
       <c r="Q78" s="21"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="B79" s="190"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="189"/>
+        <v>496</v>
+      </c>
+      <c r="B79" s="186"/>
+      <c r="C79" s="192"/>
+      <c r="D79" s="206"/>
       <c r="E79" s="11" t="s">
         <v>50</v>
       </c>
@@ -10770,17 +10794,17 @@
       <c r="O79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P79" s="194"/>
+      <c r="P79" s="183"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="61"/>
-      <c r="B80" s="183" t="s">
+      <c r="B80" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="185" t="s">
+      <c r="C80" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="187">
+      <c r="D80" s="193">
         <v>1787</v>
       </c>
       <c r="E80" s="9" t="s">
@@ -10817,7 +10841,7 @@
       <c r="O80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P80" s="192" t="s">
+      <c r="P80" s="181" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10825,9 +10849,9 @@
       <c r="A81" s="61">
         <v>19</v>
       </c>
-      <c r="B81" s="184"/>
-      <c r="C81" s="186"/>
-      <c r="D81" s="188"/>
+      <c r="B81" s="185"/>
+      <c r="C81" s="191"/>
+      <c r="D81" s="194"/>
       <c r="E81" s="10" t="s">
         <v>17</v>
       </c>
@@ -10854,16 +10878,16 @@
       <c r="O81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P81" s="193"/>
+      <c r="P81" s="182"/>
       <c r="Q81" s="21"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="B82" s="184"/>
-      <c r="C82" s="186"/>
-      <c r="D82" s="188"/>
+        <v>518</v>
+      </c>
+      <c r="B82" s="185"/>
+      <c r="C82" s="191"/>
+      <c r="D82" s="194"/>
       <c r="E82" s="10" t="s">
         <v>50</v>
       </c>
@@ -10900,17 +10924,17 @@
       <c r="O82" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P82" s="193"/>
+      <c r="P82" s="182"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="61"/>
-      <c r="B83" s="183" t="s">
+      <c r="B83" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="185" t="s">
-        <v>535</v>
-      </c>
-      <c r="D83" s="195">
+      <c r="C83" s="190" t="s">
+        <v>534</v>
+      </c>
+      <c r="D83" s="187">
         <v>1676</v>
       </c>
       <c r="E83" s="9" t="s">
@@ -10947,17 +10971,17 @@
       <c r="O83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P83" s="192"/>
+      <c r="P83" s="181"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="61">
         <v>20</v>
       </c>
-      <c r="B84" s="184"/>
-      <c r="C84" s="186" t="s">
+      <c r="B84" s="185"/>
+      <c r="C84" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="196"/>
+      <c r="D84" s="188"/>
       <c r="E84" s="10" t="s">
         <v>17</v>
       </c>
@@ -10981,16 +11005,16 @@
       <c r="O84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P84" s="193"/>
+      <c r="P84" s="182"/>
       <c r="Q84" s="21"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="61" t="s">
-        <v>499</v>
-      </c>
-      <c r="B85" s="190"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="197"/>
+        <v>498</v>
+      </c>
+      <c r="B85" s="186"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="189"/>
       <c r="E85" s="11" t="s">
         <v>50</v>
       </c>
@@ -11026,17 +11050,17 @@
       <c r="O85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P85" s="194"/>
+      <c r="P85" s="183"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="61"/>
-      <c r="B86" s="183" t="s">
+      <c r="B86" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="185" t="s">
+      <c r="C86" s="190" t="s">
         <v>158</v>
       </c>
-      <c r="D86" s="187">
+      <c r="D86" s="193">
         <v>1653</v>
       </c>
       <c r="E86" s="9" t="s">
@@ -11073,7 +11097,7 @@
       <c r="O86" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P86" s="192">
+      <c r="P86" s="181">
         <v>547</v>
       </c>
     </row>
@@ -11081,9 +11105,9 @@
       <c r="A87" s="61">
         <v>21</v>
       </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="188"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="191"/>
+      <c r="D87" s="194"/>
       <c r="E87" s="10" t="s">
         <v>17</v>
       </c>
@@ -11115,16 +11139,16 @@
       <c r="O87" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P87" s="193"/>
+      <c r="P87" s="182"/>
       <c r="Q87" s="21"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="B88" s="190"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="189"/>
+        <v>496</v>
+      </c>
+      <c r="B88" s="186"/>
+      <c r="C88" s="192"/>
+      <c r="D88" s="206"/>
       <c r="E88" s="11" t="s">
         <v>50</v>
       </c>
@@ -11158,17 +11182,17 @@
       <c r="O88" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="194"/>
+      <c r="P88" s="183"/>
     </row>
     <row r="89" spans="1:17" ht="14.4" customHeight="1">
       <c r="A89" s="61"/>
-      <c r="B89" s="183" t="s">
+      <c r="B89" s="184" t="s">
         <v>485</v>
       </c>
-      <c r="C89" s="185" t="s">
+      <c r="C89" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="187">
+      <c r="D89" s="193">
         <v>1640</v>
       </c>
       <c r="E89" s="9" t="s">
@@ -11204,15 +11228,15 @@
       <c r="O89" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P89" s="192"/>
+      <c r="P89" s="181"/>
     </row>
     <row r="90" spans="1:17" ht="14.4" customHeight="1">
       <c r="A90" s="61">
         <v>22</v>
       </c>
-      <c r="B90" s="184"/>
-      <c r="C90" s="186"/>
-      <c r="D90" s="188"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="191"/>
+      <c r="D90" s="194"/>
       <c r="E90" s="10" t="s">
         <v>17</v>
       </c>
@@ -11242,16 +11266,16 @@
       <c r="O90" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P90" s="193"/>
+      <c r="P90" s="182"/>
       <c r="Q90" s="21"/>
     </row>
     <row r="91" spans="1:17" ht="14.4" customHeight="1">
       <c r="A91" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B91" s="190"/>
-      <c r="C91" s="191"/>
-      <c r="D91" s="189"/>
+        <v>515</v>
+      </c>
+      <c r="B91" s="186"/>
+      <c r="C91" s="192"/>
+      <c r="D91" s="206"/>
       <c r="E91" s="11" t="s">
         <v>50</v>
       </c>
@@ -11285,255 +11309,259 @@
       <c r="O91" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P91" s="194"/>
+      <c r="P91" s="183"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="61"/>
-      <c r="B92" s="183" t="s">
-        <v>365</v>
-      </c>
-      <c r="C92" s="185" t="s">
-        <v>523</v>
-      </c>
-      <c r="D92" s="195">
-        <v>1522</v>
+      <c r="B92" s="184" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="190" t="s">
+        <v>530</v>
+      </c>
+      <c r="D92" s="193">
+        <v>1505</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="32">
-        <f>AVERAGE(G92:I92)</f>
-        <v>1213.3333333333333</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1435</v>
-      </c>
-      <c r="H92" s="4">
-        <v>1166</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1039</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="F92" s="23">
+        <f>AVERAGE(G92:H92)</f>
+        <v>1330.5</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1329</v>
+      </c>
+      <c r="H92" s="16">
+        <v>1332</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M92" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O92" s="173" t="s">
-        <v>18</v>
-      </c>
-      <c r="P92" s="192"/>
+      <c r="O92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P92" s="181">
+        <v>174</v>
+      </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="61">
         <v>23</v>
       </c>
-      <c r="B93" s="184"/>
-      <c r="C93" s="186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="196"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="191"/>
+      <c r="D93" s="194"/>
       <c r="E93" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="33">
-        <v>309</v>
-      </c>
-      <c r="G93" s="5">
-        <v>309</v>
-      </c>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="M93" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O93" s="174" t="s">
-        <v>18</v>
-      </c>
-      <c r="P93" s="193"/>
+      <c r="O93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P93" s="182"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="61"/>
-      <c r="B94" s="190"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="197"/>
+      <c r="B94" s="186"/>
+      <c r="C94" s="192"/>
+      <c r="D94" s="206"/>
       <c r="E94" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F94" s="171">
-        <f>SUM(F92:F93)</f>
-        <v>1522.3333333333333</v>
-      </c>
-      <c r="G94" s="6">
-        <f>SUM(G92:G93)</f>
-        <v>1744</v>
-      </c>
-      <c r="H94" s="6">
-        <v>1166</v>
-      </c>
-      <c r="I94" s="6">
-        <v>1039</v>
-      </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+      <c r="F94" s="25">
+        <v>1331</v>
+      </c>
+      <c r="G94" s="18">
+        <v>1329</v>
+      </c>
+      <c r="H94" s="18">
+        <v>1332</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="M94" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O94" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="P94" s="194"/>
+      <c r="O94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P94" s="183"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="61"/>
-      <c r="B95" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" s="185" t="s">
-        <v>531</v>
+      <c r="B95" s="184" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" s="190" t="s">
+        <v>522</v>
       </c>
       <c r="D95" s="187">
-        <v>1505</v>
+        <v>1475</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="23">
-        <f>AVERAGE(G95:H95)</f>
-        <v>1330.5</v>
-      </c>
-      <c r="G95" s="16">
-        <v>1329</v>
-      </c>
-      <c r="H95" s="16">
-        <v>1332</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F95" s="32">
+        <f>AVERAGE(G95:J95)</f>
+        <v>1166.25</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1435</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1166</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1039</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1025</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P95" s="192">
-        <v>174</v>
-      </c>
+      <c r="O95" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="P95" s="181"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="61">
         <v>24</v>
       </c>
-      <c r="B96" s="184"/>
-      <c r="C96" s="186"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="191" t="s">
+        <v>46</v>
+      </c>
       <c r="D96" s="188"/>
       <c r="E96" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="F96" s="33">
+        <v>309</v>
+      </c>
+      <c r="G96" s="5">
+        <v>309</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
       <c r="M96" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P96" s="193"/>
+      <c r="O96" s="174" t="s">
+        <v>18</v>
+      </c>
+      <c r="P96" s="182"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="B97" s="190"/>
-      <c r="C97" s="191"/>
+        <v>499</v>
+      </c>
+      <c r="B97" s="186"/>
+      <c r="C97" s="192"/>
       <c r="D97" s="189"/>
       <c r="E97" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F97" s="25">
-        <v>1331</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1329</v>
-      </c>
-      <c r="H97" s="18">
-        <v>1332</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="F97" s="171">
+        <f>SUM(F95:F96)</f>
+        <v>1475.25</v>
+      </c>
+      <c r="G97" s="6">
+        <f>SUM(G95:G96)</f>
+        <v>1744</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1166</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1039</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P97" s="194"/>
+      <c r="O97" s="175" t="s">
+        <v>18</v>
+      </c>
+      <c r="P97" s="183"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="61"/>
-      <c r="B98" s="183" t="s">
+      <c r="B98" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="185" t="s">
+      <c r="C98" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="187">
+      <c r="D98" s="193">
         <v>1279</v>
       </c>
       <c r="E98" s="9" t="s">
@@ -11570,15 +11598,15 @@
       <c r="O98" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P98" s="192"/>
+      <c r="P98" s="181"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="61">
         <v>25</v>
       </c>
-      <c r="B99" s="184"/>
-      <c r="C99" s="186"/>
-      <c r="D99" s="188"/>
+      <c r="B99" s="185"/>
+      <c r="C99" s="191"/>
+      <c r="D99" s="194"/>
       <c r="E99" s="10" t="s">
         <v>17</v>
       </c>
@@ -11598,15 +11626,15 @@
       <c r="O99" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P99" s="193"/>
+      <c r="P99" s="182"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="B100" s="190"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="189"/>
+        <v>518</v>
+      </c>
+      <c r="B100" s="186"/>
+      <c r="C100" s="192"/>
+      <c r="D100" s="206"/>
       <c r="E100" s="11" t="s">
         <v>50</v>
       </c>
@@ -11640,17 +11668,17 @@
       <c r="O100" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P100" s="194"/>
+      <c r="P100" s="183"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="61"/>
-      <c r="B101" s="183" t="s">
+      <c r="B101" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="C101" s="185" t="s">
+      <c r="C101" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="187">
+      <c r="D101" s="193">
         <v>1208</v>
       </c>
       <c r="E101" s="9" t="s">
@@ -11674,15 +11702,15 @@
       <c r="O101" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P101" s="192"/>
+      <c r="P101" s="181"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="61">
         <v>26</v>
       </c>
-      <c r="B102" s="184"/>
-      <c r="C102" s="186"/>
-      <c r="D102" s="188"/>
+      <c r="B102" s="185"/>
+      <c r="C102" s="191"/>
+      <c r="D102" s="194"/>
       <c r="E102" s="10" t="s">
         <v>17</v>
       </c>
@@ -11715,211 +11743,181 @@
       <c r="O102" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P102" s="193"/>
+      <c r="P102" s="182"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="61" t="s">
-        <v>499</v>
-      </c>
-      <c r="B103" s="190"/>
+        <v>498</v>
+      </c>
+      <c r="B103" s="185"/>
       <c r="C103" s="191"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="194"/>
+      <c r="E103" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="25">
+      <c r="F103" s="26">
         <v>1208</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="17">
         <v>1441</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103" s="17">
         <v>1290</v>
       </c>
-      <c r="I103" s="18">
+      <c r="I103" s="17">
         <v>1062</v>
       </c>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18">
+      <c r="J103" s="17"/>
+      <c r="K103" s="17">
         <v>1040</v>
       </c>
-      <c r="L103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O103" s="14" t="s">
+      <c r="L103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O103" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="P103" s="194"/>
+      <c r="P103" s="182"/>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="61"/>
-      <c r="B104" s="183" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="185" t="s">
-        <v>524</v>
-      </c>
-      <c r="D104" s="187">
-        <v>730</v>
+      <c r="B104" s="184" t="s">
+        <v>486</v>
+      </c>
+      <c r="C104" s="190" t="s">
+        <v>528</v>
+      </c>
+      <c r="D104" s="193">
+        <v>1065</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="23">
-        <f>AVERAGE(G104:L104)</f>
-        <v>509.33333333333331</v>
-      </c>
-      <c r="G104" s="16">
-        <v>592</v>
-      </c>
-      <c r="H104" s="16">
-        <v>570</v>
-      </c>
-      <c r="I104" s="16">
-        <v>523</v>
-      </c>
-      <c r="J104" s="16">
-        <v>452</v>
-      </c>
-      <c r="K104" s="16">
-        <v>450</v>
-      </c>
-      <c r="L104" s="12">
-        <v>469</v>
-      </c>
+      <c r="F104" s="32">
+        <v>1065</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1065</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
       <c r="M104" s="4" t="s">
-        <v>18</v>
+        <v>495</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O104" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P104" s="192"/>
+        <v>495</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="P104" s="181"/>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="61">
         <v>27</v>
       </c>
-      <c r="B105" s="184"/>
-      <c r="C105" s="186"/>
-      <c r="D105" s="188"/>
+      <c r="B105" s="185"/>
+      <c r="C105" s="191" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="194"/>
       <c r="E105" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="24">
-        <v>220</v>
-      </c>
-      <c r="G105" s="17">
-        <v>248</v>
-      </c>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17">
-        <v>203</v>
-      </c>
-      <c r="L105" s="13">
-        <v>210</v>
-      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="H105" s="267" t="s">
+        <v>565</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
       <c r="M105" s="5" t="s">
-        <v>18</v>
+        <v>495</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O105" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P105" s="193"/>
+        <v>495</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="P105" s="182"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="61"/>
-      <c r="B106" s="190"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="189"/>
+      <c r="B106" s="186"/>
+      <c r="C106" s="192"/>
+      <c r="D106" s="206"/>
       <c r="E106" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F106" s="25">
-        <v>730</v>
-      </c>
-      <c r="G106" s="18">
-        <f>SUM(G104:G105)</f>
-        <v>840</v>
-      </c>
-      <c r="H106" s="18">
-        <v>570</v>
-      </c>
-      <c r="I106" s="18">
-        <v>523</v>
-      </c>
-      <c r="J106" s="18">
-        <v>452</v>
-      </c>
-      <c r="K106" s="18">
-        <f>SUM(K104:K105)</f>
-        <v>653</v>
-      </c>
-      <c r="L106" s="14">
-        <f>SUM(L104:L105)</f>
-        <v>679</v>
-      </c>
+      <c r="F106" s="171">
+        <v>1065</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
       <c r="M106" s="6" t="s">
-        <v>18</v>
+        <v>495</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O106" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P106" s="194"/>
+        <v>495</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="P106" s="183"/>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="61"/>
-      <c r="B107" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="187">
-        <v>704</v>
+      <c r="B107" s="184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="190" t="s">
+        <v>523</v>
+      </c>
+      <c r="D107" s="193">
+        <v>730</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="23">
         <f>AVERAGE(G107:L107)</f>
-        <v>703.5</v>
+        <v>509.33333333333331</v>
       </c>
       <c r="G107" s="16">
-        <v>885</v>
+        <v>592</v>
       </c>
       <c r="H107" s="16">
-        <v>798</v>
+        <v>570</v>
       </c>
       <c r="I107" s="16">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="J107" s="16">
-        <v>700</v>
+        <v>452</v>
       </c>
       <c r="K107" s="16">
-        <v>671</v>
-      </c>
-      <c r="L107" s="54">
-        <v>612</v>
+        <v>450</v>
+      </c>
+      <c r="L107" s="12">
+        <v>469</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>18</v>
@@ -11927,39 +11925,37 @@
       <c r="N107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O107" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="P107" s="192"/>
+      <c r="O107" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P107" s="181"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="61">
         <v>28</v>
       </c>
-      <c r="B108" s="184"/>
-      <c r="C108" s="186"/>
-      <c r="D108" s="188"/>
+      <c r="B108" s="185"/>
+      <c r="C108" s="191"/>
+      <c r="D108" s="194"/>
       <c r="E108" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H108" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I108" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J108" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K108" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L108" s="31" t="s">
-        <v>162</v>
+      <c r="F108" s="24">
+        <v>220</v>
+      </c>
+      <c r="G108" s="17">
+        <v>248</v>
+      </c>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17">
+        <v>203</v>
+      </c>
+      <c r="L108" s="13">
+        <v>210</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>18</v>
@@ -11967,41 +11963,44 @@
       <c r="N108" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O108" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="P108" s="193"/>
+      <c r="O108" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P108" s="182"/>
     </row>
     <row r="109" spans="1:16" ht="13.8" customHeight="1">
       <c r="A109" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="B109" s="190"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="189"/>
+        <v>519</v>
+      </c>
+      <c r="B109" s="186"/>
+      <c r="C109" s="192"/>
+      <c r="D109" s="206"/>
       <c r="E109" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F109" s="25">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="G109" s="18">
-        <v>885</v>
+        <f>SUM(G107:G108)</f>
+        <v>840</v>
       </c>
       <c r="H109" s="18">
-        <v>798</v>
+        <v>570</v>
       </c>
       <c r="I109" s="18">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="J109" s="18">
-        <v>700</v>
+        <v>452</v>
       </c>
       <c r="K109" s="18">
-        <v>671</v>
-      </c>
-      <c r="L109" s="56" t="s">
-        <v>121</v>
+        <f>SUM(K107:K108)</f>
+        <v>653</v>
+      </c>
+      <c r="L109" s="14">
+        <f>SUM(L107:L108)</f>
+        <v>679</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>18</v>
@@ -12009,45 +12008,46 @@
       <c r="N109" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O109" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="P109" s="194"/>
+      <c r="O109" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P109" s="183"/>
     </row>
     <row r="110" spans="1:16" ht="15.6" customHeight="1">
       <c r="A110" s="61"/>
-      <c r="B110" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="185" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="202" t="s">
-        <v>125</v>
+      <c r="B110" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="190" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="193">
+        <v>704</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="23">
-        <v>631</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>78</v>
+        <f>AVERAGE(G110:L110)</f>
+        <v>703.5</v>
+      </c>
+      <c r="G110" s="16">
+        <v>885</v>
       </c>
       <c r="H110" s="16">
-        <v>652</v>
+        <v>798</v>
       </c>
       <c r="I110" s="16">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="J110" s="16">
-        <v>626</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>18</v>
+        <v>700</v>
+      </c>
+      <c r="K110" s="16">
+        <v>671</v>
+      </c>
+      <c r="L110" s="54">
+        <v>612</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>18</v>
@@ -12055,39 +12055,39 @@
       <c r="N110" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O110" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P110" s="192"/>
+      <c r="O110" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P110" s="181"/>
     </row>
     <row r="111" spans="1:16" ht="13.8" customHeight="1">
       <c r="A111" s="61">
         <v>29</v>
       </c>
-      <c r="B111" s="184"/>
-      <c r="C111" s="186"/>
-      <c r="D111" s="203"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="191"/>
+      <c r="D111" s="194"/>
       <c r="E111" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="31" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H111" s="31" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I111" s="31" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="J111" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="K111" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L111" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>18</v>
@@ -12095,33 +12095,41 @@
       <c r="N111" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O111" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P111" s="193"/>
+      <c r="O111" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P111" s="182"/>
     </row>
     <row r="112" spans="1:16" ht="13.2" customHeight="1">
       <c r="A112" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="B112" s="190"/>
-      <c r="C112" s="191"/>
-      <c r="D112" s="204"/>
+        <v>499</v>
+      </c>
+      <c r="B112" s="186"/>
+      <c r="C112" s="192"/>
+      <c r="D112" s="206"/>
       <c r="E112" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="25">
-        <v>631</v>
-      </c>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>18</v>
+        <v>704</v>
+      </c>
+      <c r="G112" s="18">
+        <v>885</v>
+      </c>
+      <c r="H112" s="18">
+        <v>798</v>
+      </c>
+      <c r="I112" s="18">
+        <v>555</v>
+      </c>
+      <c r="J112" s="18">
+        <v>700</v>
+      </c>
+      <c r="K112" s="18">
+        <v>671</v>
+      </c>
+      <c r="L112" s="56" t="s">
+        <v>121</v>
       </c>
       <c r="M112" s="6" t="s">
         <v>18</v>
@@ -12129,26 +12137,40 @@
       <c r="N112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O112" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P112" s="194"/>
+      <c r="O112" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P112" s="183"/>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="61"/>
-      <c r="B113" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" s="185" t="s">
-        <v>526</v>
-      </c>
-      <c r="D113" s="187" t="s">
-        <v>55</v>
+      <c r="B113" s="184" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" s="190" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="207" t="s">
+        <v>125</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="23"/>
+      <c r="F113" s="23">
+        <v>631</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" s="16">
+        <v>652</v>
+      </c>
+      <c r="I113" s="16">
+        <v>614</v>
+      </c>
+      <c r="J113" s="16">
+        <v>626</v>
+      </c>
       <c r="K113" s="4" t="s">
         <v>18</v>
       </c>
@@ -12164,30 +12186,30 @@
       <c r="O113" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P113" s="192"/>
+      <c r="P113" s="181"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="61">
         <v>30</v>
       </c>
-      <c r="B114" s="184"/>
-      <c r="C114" s="186"/>
-      <c r="D114" s="188"/>
+      <c r="B114" s="185"/>
+      <c r="C114" s="191"/>
+      <c r="D114" s="208"/>
       <c r="E114" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F114" s="24"/>
-      <c r="G114" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H114" s="30" t="s">
-        <v>52</v>
+      <c r="G114" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="I114" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J114" s="30" t="s">
-        <v>53</v>
+      <c r="J114" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>18</v>
@@ -12204,19 +12226,21 @@
       <c r="O114" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P114" s="193"/>
+      <c r="P114" s="182"/>
     </row>
     <row r="115" spans="1:16" ht="15.6" customHeight="1">
       <c r="A115" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="B115" s="190"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="189"/>
+        <v>496</v>
+      </c>
+      <c r="B115" s="186"/>
+      <c r="C115" s="192"/>
+      <c r="D115" s="209"/>
       <c r="E115" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F115" s="28"/>
+      <c r="F115" s="25">
+        <v>631</v>
+      </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
@@ -12236,35 +12260,23 @@
       <c r="O115" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P115" s="194"/>
+      <c r="P115" s="183"/>
     </row>
     <row r="116" spans="1:16" ht="15.6" customHeight="1">
       <c r="A116" s="61"/>
-      <c r="B116" s="183" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="185" t="s">
-        <v>527</v>
-      </c>
-      <c r="D116" s="187" t="s">
+      <c r="B116" s="184" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="190" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" s="193" t="s">
         <v>55</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="23"/>
-      <c r="G116" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K116" s="4" t="s">
         <v>18</v>
       </c>
@@ -12277,33 +12289,33 @@
       <c r="N116" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P116" s="192"/>
+      <c r="O116" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P116" s="181"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1">
       <c r="A117" s="61">
         <v>31</v>
       </c>
-      <c r="B117" s="184"/>
-      <c r="C117" s="186"/>
-      <c r="D117" s="188"/>
+      <c r="B117" s="185"/>
+      <c r="C117" s="191"/>
+      <c r="D117" s="194"/>
       <c r="E117" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F117" s="24"/>
-      <c r="G117" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>18</v>
+      <c r="G117" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J117" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>18</v>
@@ -12317,32 +12329,24 @@
       <c r="N117" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O117" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P117" s="193"/>
+      <c r="O117" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P117" s="182"/>
     </row>
     <row r="118" spans="1:16" ht="14.4" customHeight="1">
       <c r="A118" s="61"/>
-      <c r="B118" s="190"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="189"/>
+      <c r="B118" s="186"/>
+      <c r="C118" s="192"/>
+      <c r="D118" s="206"/>
       <c r="E118" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="28"/>
-      <c r="G118" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
       <c r="K118" s="6" t="s">
         <v>18</v>
       </c>
@@ -12355,30 +12359,28 @@
       <c r="N118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P118" s="194"/>
+      <c r="O118" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P118" s="183"/>
     </row>
     <row r="119" spans="1:16" ht="16.8" customHeight="1">
       <c r="A119" s="61"/>
-      <c r="B119" s="183" t="s">
-        <v>77</v>
-      </c>
-      <c r="C119" s="185" t="s">
-        <v>528</v>
-      </c>
-      <c r="D119" s="187" t="s">
-        <v>487</v>
+      <c r="B119" s="184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="190" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" s="193" t="s">
+        <v>55</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="F119" s="23"/>
       <c r="G119" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>18</v>
@@ -12404,25 +12406,21 @@
       <c r="O119" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P119" s="192"/>
+      <c r="P119" s="181"/>
     </row>
     <row r="120" spans="1:16" ht="14.4" customHeight="1">
       <c r="A120" s="61">
         <v>32</v>
       </c>
-      <c r="B120" s="184"/>
-      <c r="C120" s="186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D120" s="188"/>
+      <c r="B120" s="185"/>
+      <c r="C120" s="191"/>
+      <c r="D120" s="194"/>
       <c r="E120" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="33" t="s">
-        <v>18</v>
-      </c>
+      <c r="F120" s="24"/>
       <c r="G120" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>18</v>
@@ -12448,175 +12446,221 @@
       <c r="O120" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P120" s="193"/>
-    </row>
-    <row r="121" spans="1:16" ht="13.2" customHeight="1" thickBot="1">
+      <c r="P120" s="182"/>
+    </row>
+    <row r="121" spans="1:16" ht="13.2" customHeight="1">
       <c r="A121" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B121" s="184"/>
-      <c r="C121" s="186"/>
-      <c r="D121" s="188"/>
-      <c r="E121" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B121" s="186"/>
+      <c r="C121" s="192"/>
+      <c r="D121" s="206"/>
+      <c r="E121" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F121" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P121" s="193"/>
-    </row>
-    <row r="122" spans="1:16" ht="13.8" customHeight="1" thickTop="1">
+      <c r="F121" s="28"/>
+      <c r="G121" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P121" s="183"/>
+    </row>
+    <row r="122" spans="1:16" ht="13.8" customHeight="1">
       <c r="A122" s="61"/>
-      <c r="B122" s="198" t="s">
-        <v>486</v>
-      </c>
-      <c r="C122" s="199" t="s">
-        <v>529</v>
-      </c>
-      <c r="D122" s="200" t="s">
-        <v>495</v>
-      </c>
-      <c r="E122" s="62" t="s">
+      <c r="B122" s="184" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="D122" s="193" t="s">
+        <v>487</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="N122" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="O122" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="P122" s="201"/>
+      <c r="F122" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P122" s="181"/>
     </row>
     <row r="123" spans="1:16" ht="14.4" customHeight="1">
       <c r="A123" s="61">
         <v>33</v>
       </c>
-      <c r="B123" s="184"/>
-      <c r="C123" s="186" t="s">
+      <c r="B123" s="185"/>
+      <c r="C123" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="188"/>
+      <c r="D123" s="194"/>
       <c r="E123" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
+      <c r="F123" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="M123" s="5" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="P123" s="193"/>
-    </row>
-    <row r="124" spans="1:16" ht="16.2" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="P123" s="182"/>
+    </row>
+    <row r="124" spans="1:16" ht="16.2" customHeight="1" thickBot="1">
       <c r="A124" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="B124" s="190"/>
+        <v>515</v>
+      </c>
+      <c r="B124" s="185"/>
       <c r="C124" s="191"/>
-      <c r="D124" s="189"/>
-      <c r="E124" s="11" t="s">
+      <c r="D124" s="194"/>
+      <c r="E124" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F124" s="34"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="N124" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="O124" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="P124" s="194"/>
-    </row>
-    <row r="125" spans="1:16" ht="16.2" customHeight="1">
+      <c r="F124" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P124" s="182"/>
+    </row>
+    <row r="125" spans="1:16" ht="16.2" customHeight="1" thickTop="1">
       <c r="A125" s="61"/>
-      <c r="B125" s="183" t="s">
-        <v>564</v>
-      </c>
-      <c r="C125" s="185" t="s">
+      <c r="B125" s="210" t="s">
+        <v>563</v>
+      </c>
+      <c r="C125" s="211" t="s">
         <v>494</v>
       </c>
-      <c r="D125" s="187" t="s">
-        <v>487</v>
-      </c>
-      <c r="E125" s="9" t="s">
+      <c r="D125" s="268" t="s">
+        <v>566</v>
+      </c>
+      <c r="E125" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="32"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="192"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
+      <c r="K125" s="64"/>
+      <c r="L125" s="64"/>
+      <c r="M125" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="N125" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="O125" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="P125" s="212"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1">
       <c r="A126" s="61">
         <v>34</v>
       </c>
-      <c r="B126" s="184"/>
-      <c r="C126" s="186" t="s">
+      <c r="B126" s="185"/>
+      <c r="C126" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="188"/>
+      <c r="D126" s="269"/>
       <c r="E126" s="10" t="s">
         <v>17</v>
       </c>
@@ -12627,18 +12671,24 @@
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="193"/>
+      <c r="M126" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="P126" s="182"/>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="B127" s="190"/>
-      <c r="C127" s="191"/>
-      <c r="D127" s="189"/>
+        <v>501</v>
+      </c>
+      <c r="B127" s="186"/>
+      <c r="C127" s="192"/>
+      <c r="D127" s="270"/>
       <c r="E127" s="11" t="s">
         <v>50</v>
       </c>
@@ -12649,216 +12699,299 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="194"/>
+      <c r="M127" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="P127" s="183"/>
     </row>
     <row r="130" spans="19:21">
-      <c r="S130" s="180"/>
-      <c r="T130" s="180"/>
+      <c r="S130" s="213"/>
+      <c r="T130" s="213"/>
       <c r="U130" s="65"/>
     </row>
     <row r="131" spans="19:21">
-      <c r="S131" s="181"/>
-      <c r="T131" s="181"/>
+      <c r="S131" s="214"/>
+      <c r="T131" s="214"/>
       <c r="U131" s="66"/>
     </row>
     <row r="132" spans="19:21">
-      <c r="S132" s="182"/>
-      <c r="T132" s="182"/>
+      <c r="S132" s="215"/>
+      <c r="T132" s="215"/>
       <c r="U132" s="66"/>
     </row>
     <row r="133" spans="19:21">
-      <c r="S133" s="180"/>
-      <c r="T133" s="180"/>
+      <c r="S133" s="213"/>
+      <c r="T133" s="213"/>
       <c r="U133" s="66"/>
     </row>
     <row r="134" spans="19:21">
-      <c r="S134" s="181"/>
-      <c r="T134" s="181"/>
+      <c r="S134" s="214"/>
+      <c r="T134" s="214"/>
       <c r="U134" s="66"/>
     </row>
     <row r="135" spans="19:21">
-      <c r="S135" s="182"/>
-      <c r="T135" s="182"/>
+      <c r="S135" s="215"/>
+      <c r="T135" s="215"/>
       <c r="U135" s="66"/>
     </row>
     <row r="136" spans="19:21">
-      <c r="S136" s="180"/>
-      <c r="T136" s="180"/>
+      <c r="S136" s="213"/>
+      <c r="T136" s="213"/>
       <c r="U136" s="66"/>
     </row>
     <row r="137" spans="19:21">
-      <c r="S137" s="181"/>
-      <c r="T137" s="181"/>
+      <c r="S137" s="214"/>
+      <c r="T137" s="214"/>
       <c r="U137" s="66"/>
     </row>
     <row r="138" spans="19:21">
-      <c r="S138" s="182"/>
-      <c r="T138" s="182"/>
+      <c r="S138" s="215"/>
+      <c r="T138" s="215"/>
       <c r="U138" s="66"/>
     </row>
     <row r="139" spans="19:21">
-      <c r="S139" s="180"/>
-      <c r="T139" s="180"/>
+      <c r="S139" s="213"/>
+      <c r="T139" s="213"/>
       <c r="U139" s="66"/>
     </row>
     <row r="140" spans="19:21">
-      <c r="S140" s="181"/>
-      <c r="T140" s="181"/>
+      <c r="S140" s="214"/>
+      <c r="T140" s="214"/>
       <c r="U140" s="66"/>
     </row>
     <row r="141" spans="19:21">
-      <c r="S141" s="182"/>
-      <c r="T141" s="182"/>
+      <c r="S141" s="215"/>
+      <c r="T141" s="215"/>
       <c r="U141" s="66"/>
     </row>
     <row r="142" spans="19:21">
-      <c r="S142" s="180"/>
-      <c r="T142" s="180"/>
+      <c r="S142" s="213"/>
+      <c r="T142" s="213"/>
       <c r="U142" s="66"/>
     </row>
     <row r="143" spans="19:21">
-      <c r="S143" s="181"/>
-      <c r="T143" s="181"/>
+      <c r="S143" s="214"/>
+      <c r="T143" s="214"/>
       <c r="U143" s="66"/>
     </row>
     <row r="144" spans="19:21">
-      <c r="S144" s="182"/>
-      <c r="T144" s="182"/>
+      <c r="S144" s="215"/>
+      <c r="T144" s="215"/>
       <c r="U144" s="67"/>
     </row>
     <row r="146" spans="19:20">
-      <c r="S146" s="180"/>
-      <c r="T146" s="180"/>
+      <c r="S146" s="213"/>
+      <c r="T146" s="213"/>
     </row>
     <row r="147" spans="19:20">
-      <c r="S147" s="181"/>
-      <c r="T147" s="181"/>
+      <c r="S147" s="214"/>
+      <c r="T147" s="214"/>
     </row>
     <row r="148" spans="19:20">
-      <c r="S148" s="182"/>
-      <c r="T148" s="182"/>
+      <c r="S148" s="215"/>
+      <c r="T148" s="215"/>
     </row>
     <row r="149" spans="19:20">
-      <c r="S149" s="180"/>
-      <c r="T149" s="180"/>
+      <c r="S149" s="213"/>
+      <c r="T149" s="213"/>
     </row>
     <row r="150" spans="19:20">
-      <c r="S150" s="181"/>
-      <c r="T150" s="181"/>
+      <c r="S150" s="214"/>
+      <c r="T150" s="214"/>
     </row>
     <row r="151" spans="19:20">
-      <c r="S151" s="182"/>
-      <c r="T151" s="182"/>
+      <c r="S151" s="215"/>
+      <c r="T151" s="215"/>
     </row>
     <row r="152" spans="19:20">
-      <c r="S152" s="180"/>
-      <c r="T152" s="180"/>
+      <c r="S152" s="213"/>
+      <c r="T152" s="213"/>
     </row>
     <row r="153" spans="19:20">
-      <c r="S153" s="181"/>
-      <c r="T153" s="181"/>
+      <c r="S153" s="214"/>
+      <c r="T153" s="214"/>
     </row>
     <row r="154" spans="19:20">
-      <c r="S154" s="182"/>
-      <c r="T154" s="182"/>
+      <c r="S154" s="215"/>
+      <c r="T154" s="215"/>
     </row>
     <row r="155" spans="19:20">
-      <c r="S155" s="180"/>
-      <c r="T155" s="180"/>
+      <c r="S155" s="213"/>
+      <c r="T155" s="213"/>
     </row>
     <row r="156" spans="19:20">
-      <c r="S156" s="181"/>
-      <c r="T156" s="181"/>
+      <c r="S156" s="214"/>
+      <c r="T156" s="214"/>
     </row>
     <row r="157" spans="19:20">
-      <c r="S157" s="182"/>
-      <c r="T157" s="182"/>
+      <c r="S157" s="215"/>
+      <c r="T157" s="215"/>
     </row>
     <row r="158" spans="19:20">
-      <c r="S158" s="180"/>
-      <c r="T158" s="180"/>
+      <c r="S158" s="213"/>
+      <c r="T158" s="213"/>
     </row>
     <row r="159" spans="19:20">
-      <c r="S159" s="181"/>
-      <c r="T159" s="181"/>
+      <c r="S159" s="214"/>
+      <c r="T159" s="214"/>
     </row>
     <row r="160" spans="19:20">
-      <c r="S160" s="182"/>
-      <c r="T160" s="182"/>
+      <c r="S160" s="215"/>
+      <c r="T160" s="215"/>
     </row>
     <row r="161" spans="19:20">
-      <c r="S161" s="180"/>
-      <c r="T161" s="180"/>
+      <c r="S161" s="213"/>
+      <c r="T161" s="213"/>
     </row>
     <row r="162" spans="19:20">
-      <c r="S162" s="181"/>
-      <c r="T162" s="181"/>
+      <c r="S162" s="214"/>
+      <c r="T162" s="214"/>
     </row>
     <row r="163" spans="19:20">
-      <c r="S163" s="182"/>
-      <c r="T163" s="182"/>
+      <c r="S163" s="215"/>
+      <c r="T163" s="215"/>
     </row>
     <row r="164" spans="19:20">
-      <c r="S164" s="180"/>
-      <c r="T164" s="180"/>
+      <c r="S164" s="213"/>
+      <c r="T164" s="213"/>
     </row>
     <row r="165" spans="19:20">
-      <c r="S165" s="181"/>
-      <c r="T165" s="181"/>
+      <c r="S165" s="214"/>
+      <c r="T165" s="214"/>
     </row>
     <row r="166" spans="19:20">
-      <c r="S166" s="182"/>
-      <c r="T166" s="182"/>
+      <c r="S166" s="215"/>
+      <c r="T166" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="S161:S163"/>
+    <mergeCell ref="T161:T163"/>
+    <mergeCell ref="S164:S166"/>
+    <mergeCell ref="T164:T166"/>
+    <mergeCell ref="S146:S148"/>
+    <mergeCell ref="S149:S151"/>
+    <mergeCell ref="S152:S154"/>
+    <mergeCell ref="S155:S157"/>
+    <mergeCell ref="S158:S160"/>
+    <mergeCell ref="T146:T148"/>
+    <mergeCell ref="T149:T151"/>
+    <mergeCell ref="T152:T154"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="T158:T160"/>
+    <mergeCell ref="T139:T141"/>
+    <mergeCell ref="T142:T144"/>
+    <mergeCell ref="S130:S132"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="P125:P127"/>
+    <mergeCell ref="S133:S135"/>
+    <mergeCell ref="S136:S138"/>
+    <mergeCell ref="S139:S141"/>
+    <mergeCell ref="S142:S144"/>
+    <mergeCell ref="T130:T132"/>
+    <mergeCell ref="T133:T135"/>
+    <mergeCell ref="T136:T138"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="P95:P97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="P122:P124"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="P104:P106"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="P107:P109"/>
+    <mergeCell ref="P116:P118"/>
+    <mergeCell ref="P119:P121"/>
+    <mergeCell ref="P101:P103"/>
+    <mergeCell ref="P110:P112"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="P98:P100"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="P89:P91"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="P83:P85"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="P80:P82"/>
+    <mergeCell ref="P65:P67"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="P74:P76"/>
+    <mergeCell ref="P77:P79"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="P56:P58"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B2:P3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
@@ -12883,127 +13016,50 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="P80:P82"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="P74:P76"/>
-    <mergeCell ref="P77:P79"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="P56:P58"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="P62:P64"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="P95:P97"/>
-    <mergeCell ref="P98:P100"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="P89:P91"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="P83:P85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="P119:P121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="P122:P124"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="P110:P112"/>
-    <mergeCell ref="P104:P106"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="P116:P118"/>
-    <mergeCell ref="P101:P103"/>
-    <mergeCell ref="P107:P109"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="T139:T141"/>
-    <mergeCell ref="T142:T144"/>
-    <mergeCell ref="S130:S132"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="P125:P127"/>
-    <mergeCell ref="S133:S135"/>
-    <mergeCell ref="S136:S138"/>
-    <mergeCell ref="S139:S141"/>
-    <mergeCell ref="S142:S144"/>
-    <mergeCell ref="T130:T132"/>
-    <mergeCell ref="T133:T135"/>
-    <mergeCell ref="T136:T138"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="S161:S163"/>
-    <mergeCell ref="T161:T163"/>
-    <mergeCell ref="S164:S166"/>
-    <mergeCell ref="T164:T166"/>
-    <mergeCell ref="S146:S148"/>
-    <mergeCell ref="S149:S151"/>
-    <mergeCell ref="S152:S154"/>
-    <mergeCell ref="S155:S157"/>
-    <mergeCell ref="S158:S160"/>
-    <mergeCell ref="T146:T148"/>
-    <mergeCell ref="T149:T151"/>
-    <mergeCell ref="T152:T154"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="T158:T160"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -19312,1092 +19368,1232 @@
       <c r="I4" s="105"/>
     </row>
     <row r="5" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B5" s="246">
+      <c r="B5" s="255">
         <v>39083</v>
       </c>
-      <c r="C5" s="249" t="s">
+      <c r="C5" s="246" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="252">
+      <c r="E5" s="249">
         <v>10537</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B6" s="247"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="253"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="250"/>
     </row>
     <row r="7" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B7" s="248"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="254"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="251"/>
     </row>
     <row r="8" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B8" s="246">
+      <c r="B8" s="255">
         <v>39264</v>
       </c>
-      <c r="C8" s="249" t="s">
+      <c r="C8" s="246" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="252">
+      <c r="E8" s="249">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B9" s="247"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="253"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="250"/>
     </row>
     <row r="10" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B10" s="248"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="254"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="251"/>
     </row>
     <row r="11" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B11" s="246">
+      <c r="B11" s="255">
         <v>39630</v>
       </c>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="246" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="252">
+      <c r="E11" s="249">
         <v>12744</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B12" s="247"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="253"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="250"/>
     </row>
     <row r="13" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B13" s="248"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="254"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="251"/>
     </row>
     <row r="14" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B14" s="246">
+      <c r="B14" s="255">
         <v>39904</v>
       </c>
-      <c r="C14" s="261">
+      <c r="C14" s="252">
         <v>39904</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="252">
+      <c r="E14" s="249">
         <v>56777</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B15" s="247"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="253"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="250"/>
     </row>
     <row r="16" spans="2:9" ht="7.05" customHeight="1">
-      <c r="B16" s="248"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="254"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="251"/>
     </row>
     <row r="17" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B17" s="246">
+      <c r="B17" s="255">
         <v>39995</v>
       </c>
-      <c r="C17" s="249" t="s">
+      <c r="C17" s="246" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="252">
+      <c r="E17" s="249">
         <v>7804</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B18" s="247"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="253"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="250"/>
     </row>
     <row r="19" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B19" s="248"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="254"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="251"/>
     </row>
     <row r="20" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B20" s="246">
+      <c r="B20" s="255">
         <v>39995</v>
       </c>
-      <c r="C20" s="249" t="s">
+      <c r="C20" s="246" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="180" t="s">
+      <c r="D20" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="252">
+      <c r="E20" s="249">
         <v>1208</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B21" s="247"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="253"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="250"/>
     </row>
     <row r="22" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B22" s="248"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="254"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="248"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="251"/>
     </row>
     <row r="23" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B23" s="246">
+      <c r="B23" s="255">
         <v>40179</v>
       </c>
-      <c r="C23" s="249" t="s">
+      <c r="C23" s="246" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="180" t="s">
+      <c r="D23" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="252">
+      <c r="E23" s="249">
         <v>11122</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B24" s="247"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="253"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="250"/>
     </row>
     <row r="25" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B25" s="248"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="254"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="251"/>
     </row>
     <row r="26" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B26" s="246">
+      <c r="B26" s="255">
         <v>40269</v>
       </c>
-      <c r="C26" s="261">
+      <c r="C26" s="252">
         <v>40269</v>
       </c>
-      <c r="D26" s="180" t="s">
+      <c r="D26" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="252">
+      <c r="E26" s="249">
         <v>48271</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B27" s="247"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="253"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="250"/>
     </row>
     <row r="28" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B28" s="248"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="254"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="251"/>
     </row>
     <row r="29" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B29" s="246">
+      <c r="B29" s="255">
         <v>40544</v>
       </c>
-      <c r="C29" s="249" t="s">
+      <c r="C29" s="246" t="s">
         <v>344</v>
       </c>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="252">
+      <c r="E29" s="249">
         <v>2851</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B30" s="247"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="253"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="250"/>
     </row>
     <row r="31" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B31" s="248"/>
-      <c r="C31" s="251"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="254"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="251"/>
     </row>
     <row r="32" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B32" s="246">
+      <c r="B32" s="255">
         <v>40634</v>
       </c>
-      <c r="C32" s="249" t="s">
+      <c r="C32" s="246" t="s">
         <v>345</v>
       </c>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="252">
+      <c r="E32" s="249">
         <v>6623</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B33" s="247"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="253"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="250"/>
     </row>
     <row r="34" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B34" s="248"/>
-      <c r="C34" s="251"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="254"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="248"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="251"/>
     </row>
     <row r="35" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B35" s="246">
+      <c r="B35" s="255">
         <v>40909</v>
       </c>
-      <c r="C35" s="249" t="s">
+      <c r="C35" s="246" t="s">
         <v>346</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="252">
+      <c r="E35" s="249">
         <v>6734</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B36" s="247"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="253"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="247"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="250"/>
     </row>
     <row r="37" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B37" s="248"/>
-      <c r="C37" s="251"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="254"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="248"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="251"/>
     </row>
     <row r="38" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B38" s="246">
+      <c r="B38" s="255">
         <v>41000</v>
       </c>
-      <c r="C38" s="249" t="s">
+      <c r="C38" s="246" t="s">
         <v>348</v>
       </c>
-      <c r="D38" s="180" t="s">
+      <c r="D38" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="252">
+      <c r="E38" s="249">
         <v>2748</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B39" s="247"/>
-      <c r="C39" s="250"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="253"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="250"/>
     </row>
     <row r="40" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B40" s="248"/>
-      <c r="C40" s="251"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="254"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="248"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="251"/>
     </row>
     <row r="41" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B41" s="246">
+      <c r="B41" s="255">
         <v>41153</v>
       </c>
-      <c r="C41" s="249" t="s">
+      <c r="C41" s="246" t="s">
         <v>349</v>
       </c>
-      <c r="D41" s="180" t="s">
+      <c r="D41" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="252">
+      <c r="E41" s="249">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B42" s="247"/>
-      <c r="C42" s="250"/>
-      <c r="D42" s="181" t="s">
+      <c r="B42" s="256"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="253"/>
+      <c r="E42" s="250"/>
     </row>
     <row r="43" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B43" s="248"/>
-      <c r="C43" s="251"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="254"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="251"/>
     </row>
     <row r="44" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B44" s="246">
+      <c r="B44" s="255">
         <v>41183</v>
       </c>
-      <c r="C44" s="249" t="s">
+      <c r="C44" s="246" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="180" t="s">
+      <c r="D44" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="252">
+      <c r="E44" s="249">
         <v>9573</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B45" s="247"/>
-      <c r="C45" s="250"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="253"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="250"/>
     </row>
     <row r="46" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B46" s="248"/>
-      <c r="C46" s="251"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="254"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="251"/>
     </row>
     <row r="47" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B47" s="246">
+      <c r="B47" s="255">
         <v>41365</v>
       </c>
-      <c r="C47" s="249" t="s">
+      <c r="C47" s="246" t="s">
         <v>350</v>
       </c>
-      <c r="D47" s="180" t="s">
+      <c r="D47" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="252">
+      <c r="E47" s="249">
         <v>7301</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B48" s="247"/>
-      <c r="C48" s="250"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="253"/>
+      <c r="B48" s="256"/>
+      <c r="C48" s="247"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="250"/>
     </row>
     <row r="49" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B49" s="248"/>
-      <c r="C49" s="251"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="254"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="248"/>
+      <c r="D49" s="215"/>
+      <c r="E49" s="251"/>
     </row>
     <row r="50" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B50" s="246">
+      <c r="B50" s="255">
         <v>41456</v>
       </c>
-      <c r="C50" s="249" t="s">
+      <c r="C50" s="246" t="s">
         <v>336</v>
       </c>
-      <c r="D50" s="180" t="s">
+      <c r="D50" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="252">
+      <c r="E50" s="249">
         <v>3205</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B51" s="247"/>
-      <c r="C51" s="250"/>
-      <c r="D51" s="181"/>
-      <c r="E51" s="253"/>
+      <c r="B51" s="256"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="250"/>
     </row>
     <row r="52" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B52" s="248"/>
-      <c r="C52" s="251"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="254"/>
+      <c r="B52" s="257"/>
+      <c r="C52" s="248"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="251"/>
     </row>
     <row r="53" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B53" s="246">
+      <c r="B53" s="255">
         <v>41456</v>
       </c>
-      <c r="C53" s="249" t="s">
+      <c r="C53" s="246" t="s">
         <v>336</v>
       </c>
-      <c r="D53" s="180" t="s">
+      <c r="D53" s="213" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="252">
+      <c r="E53" s="249">
         <v>8503</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B54" s="247"/>
-      <c r="C54" s="250"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="253"/>
+      <c r="B54" s="256"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="214"/>
+      <c r="E54" s="250"/>
     </row>
     <row r="55" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B55" s="248"/>
-      <c r="C55" s="251"/>
-      <c r="D55" s="182"/>
-      <c r="E55" s="254"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="248"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="251"/>
     </row>
     <row r="56" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B56" s="246">
+      <c r="B56" s="255">
         <v>41640</v>
       </c>
-      <c r="C56" s="249" t="s">
+      <c r="C56" s="246" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="180" t="s">
+      <c r="D56" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="252">
+      <c r="E56" s="249">
         <v>2838</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B57" s="247"/>
-      <c r="C57" s="250"/>
-      <c r="D57" s="181"/>
-      <c r="E57" s="253"/>
+      <c r="B57" s="256"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="214"/>
+      <c r="E57" s="250"/>
     </row>
     <row r="58" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B58" s="248"/>
-      <c r="C58" s="251"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="254"/>
+      <c r="B58" s="257"/>
+      <c r="C58" s="248"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="251"/>
     </row>
     <row r="59" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B59" s="246">
+      <c r="B59" s="255">
         <v>41730</v>
       </c>
-      <c r="C59" s="249" t="s">
+      <c r="C59" s="246" t="s">
         <v>338</v>
       </c>
-      <c r="D59" s="180" t="s">
+      <c r="D59" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="252">
+      <c r="E59" s="249">
         <v>13585</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B60" s="247"/>
-      <c r="C60" s="250"/>
-      <c r="D60" s="181"/>
-      <c r="E60" s="253"/>
+      <c r="B60" s="256"/>
+      <c r="C60" s="247"/>
+      <c r="D60" s="214"/>
+      <c r="E60" s="250"/>
     </row>
     <row r="61" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B61" s="248"/>
-      <c r="C61" s="251"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="254"/>
+      <c r="B61" s="257"/>
+      <c r="C61" s="248"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="251"/>
     </row>
     <row r="62" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B62" s="246">
+      <c r="B62" s="255">
         <v>41821</v>
       </c>
-      <c r="C62" s="249" t="s">
+      <c r="C62" s="246" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="180" t="s">
+      <c r="D62" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="252">
+      <c r="E62" s="249">
         <v>3508</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B63" s="247"/>
-      <c r="C63" s="250"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="253"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="250"/>
     </row>
     <row r="64" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B64" s="248"/>
-      <c r="C64" s="251"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="254"/>
+      <c r="B64" s="257"/>
+      <c r="C64" s="248"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="251"/>
     </row>
     <row r="65" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B65" s="246">
+      <c r="B65" s="255">
         <v>42005</v>
       </c>
-      <c r="C65" s="249" t="s">
+      <c r="C65" s="246" t="s">
         <v>352</v>
       </c>
-      <c r="D65" s="180" t="s">
+      <c r="D65" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="252">
+      <c r="E65" s="249">
         <v>1279</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B66" s="247"/>
-      <c r="C66" s="250"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="253"/>
+      <c r="B66" s="256"/>
+      <c r="C66" s="247"/>
+      <c r="D66" s="214"/>
+      <c r="E66" s="250"/>
     </row>
     <row r="67" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B67" s="248"/>
-      <c r="C67" s="251"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="254"/>
+      <c r="B67" s="257"/>
+      <c r="C67" s="248"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="251"/>
     </row>
     <row r="68" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B68" s="246">
+      <c r="B68" s="255">
         <v>42095</v>
       </c>
-      <c r="C68" s="249" t="s">
+      <c r="C68" s="246" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="180" t="s">
+      <c r="D68" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="252">
+      <c r="E68" s="249">
         <v>5094</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B69" s="247"/>
-      <c r="C69" s="250"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="253"/>
+      <c r="B69" s="256"/>
+      <c r="C69" s="247"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="250"/>
     </row>
     <row r="70" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B70" s="248"/>
-      <c r="C70" s="251"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="254"/>
+      <c r="B70" s="257"/>
+      <c r="C70" s="248"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="251"/>
     </row>
     <row r="71" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B71" s="246">
+      <c r="B71" s="255">
         <v>42095</v>
       </c>
-      <c r="C71" s="249" t="s">
+      <c r="C71" s="246" t="s">
         <v>354</v>
       </c>
-      <c r="D71" s="180" t="s">
+      <c r="D71" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="252">
+      <c r="E71" s="249">
         <v>730</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B72" s="247"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="181"/>
-      <c r="E72" s="253"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="214"/>
+      <c r="E72" s="250"/>
     </row>
     <row r="73" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B73" s="248"/>
-      <c r="C73" s="251"/>
-      <c r="D73" s="182"/>
-      <c r="E73" s="254"/>
+      <c r="B73" s="257"/>
+      <c r="C73" s="248"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="251"/>
     </row>
     <row r="74" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B74" s="246">
+      <c r="B74" s="255">
         <v>42186</v>
       </c>
-      <c r="C74" s="249" t="s">
+      <c r="C74" s="246" t="s">
         <v>355</v>
       </c>
-      <c r="D74" s="180" t="s">
+      <c r="D74" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="252">
+      <c r="E74" s="249">
         <v>2802</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B75" s="247"/>
-      <c r="C75" s="250"/>
-      <c r="D75" s="181"/>
-      <c r="E75" s="253"/>
+      <c r="B75" s="256"/>
+      <c r="C75" s="247"/>
+      <c r="D75" s="214"/>
+      <c r="E75" s="250"/>
     </row>
     <row r="76" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B76" s="248"/>
-      <c r="C76" s="251"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="254"/>
+      <c r="B76" s="257"/>
+      <c r="C76" s="248"/>
+      <c r="D76" s="215"/>
+      <c r="E76" s="251"/>
     </row>
     <row r="77" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B77" s="246">
+      <c r="B77" s="255">
         <v>42186</v>
       </c>
-      <c r="C77" s="249" t="s">
+      <c r="C77" s="246" t="s">
         <v>355</v>
       </c>
-      <c r="D77" s="180" t="s">
+      <c r="D77" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="252">
+      <c r="E77" s="249">
         <v>1787</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B78" s="247"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="181"/>
-      <c r="E78" s="253"/>
+      <c r="B78" s="256"/>
+      <c r="C78" s="247"/>
+      <c r="D78" s="214"/>
+      <c r="E78" s="250"/>
     </row>
     <row r="79" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B79" s="248"/>
-      <c r="C79" s="251"/>
-      <c r="D79" s="182"/>
-      <c r="E79" s="254"/>
+      <c r="B79" s="257"/>
+      <c r="C79" s="248"/>
+      <c r="D79" s="215"/>
+      <c r="E79" s="251"/>
     </row>
     <row r="80" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B80" s="246">
+      <c r="B80" s="255">
         <v>42186</v>
       </c>
-      <c r="C80" s="249" t="s">
+      <c r="C80" s="246" t="s">
         <v>355</v>
       </c>
-      <c r="D80" s="180" t="s">
+      <c r="D80" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="252">
+      <c r="E80" s="249">
         <v>1505</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B81" s="247"/>
-      <c r="C81" s="250"/>
-      <c r="D81" s="181"/>
-      <c r="E81" s="253"/>
+      <c r="B81" s="256"/>
+      <c r="C81" s="247"/>
+      <c r="D81" s="214"/>
+      <c r="E81" s="250"/>
     </row>
     <row r="82" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B82" s="248"/>
-      <c r="C82" s="251"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="254"/>
+      <c r="B82" s="257"/>
+      <c r="C82" s="248"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="251"/>
     </row>
     <row r="83" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B83" s="246">
+      <c r="B83" s="255">
         <v>42278</v>
       </c>
-      <c r="C83" s="249" t="s">
+      <c r="C83" s="246" t="s">
         <v>353</v>
       </c>
-      <c r="D83" s="180" t="s">
+      <c r="D83" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="252">
+      <c r="E83" s="249">
         <v>12500</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B84" s="247"/>
-      <c r="C84" s="250"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="253"/>
+      <c r="B84" s="256"/>
+      <c r="C84" s="247"/>
+      <c r="D84" s="214"/>
+      <c r="E84" s="250"/>
     </row>
     <row r="85" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B85" s="248"/>
-      <c r="C85" s="251"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="254"/>
+      <c r="B85" s="257"/>
+      <c r="C85" s="248"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="251"/>
     </row>
     <row r="86" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B86" s="246">
+      <c r="B86" s="255">
         <v>42278</v>
       </c>
-      <c r="C86" s="249" t="s">
+      <c r="C86" s="246" t="s">
         <v>353</v>
       </c>
-      <c r="D86" s="180" t="s">
+      <c r="D86" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="252">
+      <c r="E86" s="249">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B87" s="247"/>
-      <c r="C87" s="250"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="253"/>
+      <c r="B87" s="256"/>
+      <c r="C87" s="247"/>
+      <c r="D87" s="214"/>
+      <c r="E87" s="250"/>
     </row>
     <row r="88" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B88" s="248"/>
-      <c r="C88" s="251"/>
-      <c r="D88" s="182"/>
-      <c r="E88" s="254"/>
+      <c r="B88" s="257"/>
+      <c r="C88" s="248"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="251"/>
     </row>
     <row r="89" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B89" s="246">
+      <c r="B89" s="255">
         <v>42370</v>
       </c>
-      <c r="C89" s="249" t="s">
+      <c r="C89" s="246" t="s">
         <v>356</v>
       </c>
-      <c r="D89" s="180" t="s">
+      <c r="D89" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="252">
+      <c r="E89" s="249">
         <v>1640</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B90" s="247"/>
-      <c r="C90" s="250"/>
-      <c r="D90" s="181"/>
-      <c r="E90" s="253"/>
+      <c r="B90" s="256"/>
+      <c r="C90" s="247"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="250"/>
     </row>
     <row r="91" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B91" s="248"/>
-      <c r="C91" s="251"/>
-      <c r="D91" s="182"/>
-      <c r="E91" s="254"/>
+      <c r="B91" s="257"/>
+      <c r="C91" s="248"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="251"/>
     </row>
     <row r="92" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B92" s="246">
+      <c r="B92" s="255">
         <v>42461</v>
       </c>
-      <c r="C92" s="249" t="s">
+      <c r="C92" s="246" t="s">
         <v>358</v>
       </c>
-      <c r="D92" s="180" t="s">
+      <c r="D92" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <v>2099</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B93" s="247"/>
-      <c r="C93" s="250"/>
-      <c r="D93" s="181"/>
-      <c r="E93" s="253"/>
+      <c r="B93" s="256"/>
+      <c r="C93" s="247"/>
+      <c r="D93" s="214"/>
+      <c r="E93" s="250"/>
     </row>
     <row r="94" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B94" s="248"/>
-      <c r="C94" s="251"/>
-      <c r="D94" s="182"/>
-      <c r="E94" s="254"/>
+      <c r="B94" s="257"/>
+      <c r="C94" s="248"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="251"/>
     </row>
     <row r="95" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B95" s="246">
+      <c r="B95" s="255">
         <v>42461</v>
       </c>
-      <c r="C95" s="249" t="s">
+      <c r="C95" s="246" t="s">
         <v>358</v>
       </c>
-      <c r="D95" s="180" t="s">
+      <c r="D95" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <v>1106</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B96" s="247"/>
-      <c r="C96" s="250"/>
-      <c r="D96" s="181"/>
-      <c r="E96" s="253"/>
+      <c r="B96" s="256"/>
+      <c r="C96" s="247"/>
+      <c r="D96" s="214"/>
+      <c r="E96" s="250"/>
     </row>
     <row r="97" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B97" s="248"/>
-      <c r="C97" s="251"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="254"/>
+      <c r="B97" s="257"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="251"/>
     </row>
     <row r="98" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B98" s="246">
+      <c r="B98" s="255">
         <v>42552</v>
       </c>
-      <c r="C98" s="249" t="s">
+      <c r="C98" s="246" t="s">
         <v>359</v>
       </c>
-      <c r="D98" s="180" t="s">
+      <c r="D98" s="213" t="s">
         <v>334</v>
       </c>
-      <c r="E98" s="252">
+      <c r="E98" s="249">
         <v>5864</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B99" s="247"/>
-      <c r="C99" s="250"/>
-      <c r="D99" s="181"/>
-      <c r="E99" s="253"/>
+      <c r="B99" s="256"/>
+      <c r="C99" s="247"/>
+      <c r="D99" s="214"/>
+      <c r="E99" s="250"/>
     </row>
     <row r="100" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B100" s="248"/>
-      <c r="C100" s="251"/>
-      <c r="D100" s="182"/>
-      <c r="E100" s="254"/>
+      <c r="B100" s="257"/>
+      <c r="C100" s="248"/>
+      <c r="D100" s="215"/>
+      <c r="E100" s="251"/>
     </row>
     <row r="101" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B101" s="246">
+      <c r="B101" s="255">
         <v>42644</v>
       </c>
-      <c r="C101" s="249" t="s">
+      <c r="C101" s="246" t="s">
         <v>357</v>
       </c>
-      <c r="D101" s="180" t="s">
+      <c r="D101" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="E101" s="258" t="s">
+      <c r="E101" s="261" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B102" s="247"/>
-      <c r="C102" s="250"/>
-      <c r="D102" s="181"/>
-      <c r="E102" s="259"/>
+      <c r="B102" s="256"/>
+      <c r="C102" s="247"/>
+      <c r="D102" s="214"/>
+      <c r="E102" s="262"/>
     </row>
     <row r="103" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B103" s="248"/>
-      <c r="C103" s="251"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="260"/>
+      <c r="B103" s="257"/>
+      <c r="C103" s="248"/>
+      <c r="D103" s="215"/>
+      <c r="E103" s="263"/>
     </row>
     <row r="104" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B104" s="246">
+      <c r="B104" s="255">
         <v>42736</v>
       </c>
-      <c r="C104" s="249" t="s">
+      <c r="C104" s="246" t="s">
         <v>360</v>
       </c>
-      <c r="D104" s="180" t="s">
+      <c r="D104" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="E104" s="252">
+      <c r="E104" s="249">
         <v>704</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B105" s="247"/>
-      <c r="C105" s="250"/>
-      <c r="D105" s="181"/>
-      <c r="E105" s="253"/>
+      <c r="B105" s="256"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="214"/>
+      <c r="E105" s="250"/>
     </row>
     <row r="106" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B106" s="248"/>
-      <c r="C106" s="251"/>
-      <c r="D106" s="182"/>
-      <c r="E106" s="254"/>
+      <c r="B106" s="257"/>
+      <c r="C106" s="248"/>
+      <c r="D106" s="215"/>
+      <c r="E106" s="251"/>
     </row>
     <row r="107" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B107" s="246">
+      <c r="B107" s="255">
         <v>42917</v>
       </c>
-      <c r="C107" s="249" t="s">
+      <c r="C107" s="246" t="s">
         <v>362</v>
       </c>
-      <c r="D107" s="180" t="s">
+      <c r="D107" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="252">
+      <c r="E107" s="249">
         <v>4245</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B108" s="247"/>
-      <c r="C108" s="250"/>
-      <c r="D108" s="181" t="s">
+      <c r="B108" s="256"/>
+      <c r="C108" s="247"/>
+      <c r="D108" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E108" s="253"/>
+      <c r="E108" s="250"/>
     </row>
     <row r="109" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B109" s="248"/>
-      <c r="C109" s="251"/>
-      <c r="D109" s="182"/>
-      <c r="E109" s="254"/>
+      <c r="B109" s="257"/>
+      <c r="C109" s="248"/>
+      <c r="D109" s="215"/>
+      <c r="E109" s="251"/>
     </row>
     <row r="110" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B110" s="246">
+      <c r="B110" s="255">
         <v>43009</v>
       </c>
-      <c r="C110" s="249" t="s">
+      <c r="C110" s="246" t="s">
         <v>361</v>
       </c>
-      <c r="D110" s="180" t="s">
+      <c r="D110" s="213" t="s">
         <v>139</v>
       </c>
-      <c r="E110" s="255" t="s">
+      <c r="E110" s="258" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B111" s="247"/>
-      <c r="C111" s="250"/>
-      <c r="D111" s="181" t="s">
+      <c r="B111" s="256"/>
+      <c r="C111" s="247"/>
+      <c r="D111" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E111" s="256"/>
+      <c r="E111" s="259"/>
     </row>
     <row r="112" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B112" s="248"/>
-      <c r="C112" s="251"/>
-      <c r="D112" s="182"/>
-      <c r="E112" s="257"/>
+      <c r="B112" s="257"/>
+      <c r="C112" s="248"/>
+      <c r="D112" s="215"/>
+      <c r="E112" s="260"/>
     </row>
     <row r="113" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B113" s="246">
+      <c r="B113" s="255">
         <v>43101</v>
       </c>
-      <c r="C113" s="249" t="s">
+      <c r="C113" s="246" t="s">
         <v>363</v>
       </c>
-      <c r="D113" s="180" t="s">
+      <c r="D113" s="213" t="s">
         <v>141</v>
       </c>
-      <c r="E113" s="252" t="s">
+      <c r="E113" s="249" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B114" s="247"/>
-      <c r="C114" s="250"/>
-      <c r="D114" s="181" t="s">
+      <c r="B114" s="256"/>
+      <c r="C114" s="247"/>
+      <c r="D114" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E114" s="253"/>
+      <c r="E114" s="250"/>
     </row>
     <row r="115" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B115" s="248"/>
-      <c r="C115" s="251"/>
-      <c r="D115" s="182"/>
-      <c r="E115" s="254"/>
+      <c r="B115" s="257"/>
+      <c r="C115" s="248"/>
+      <c r="D115" s="215"/>
+      <c r="E115" s="251"/>
     </row>
     <row r="116" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B116" s="246">
+      <c r="B116" s="255">
         <v>43101</v>
       </c>
-      <c r="C116" s="249" t="s">
+      <c r="C116" s="246" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="180" t="s">
+      <c r="D116" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="E116" s="252" t="s">
+      <c r="E116" s="249" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B117" s="247"/>
-      <c r="C117" s="250"/>
-      <c r="D117" s="181" t="s">
+      <c r="B117" s="256"/>
+      <c r="C117" s="247"/>
+      <c r="D117" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E117" s="253"/>
+      <c r="E117" s="250"/>
     </row>
     <row r="118" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B118" s="248"/>
-      <c r="C118" s="251"/>
-      <c r="D118" s="182"/>
-      <c r="E118" s="254"/>
+      <c r="B118" s="257"/>
+      <c r="C118" s="248"/>
+      <c r="D118" s="215"/>
+      <c r="E118" s="251"/>
     </row>
     <row r="119" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B119" s="249" t="s">
+      <c r="B119" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="C119" s="249" t="s">
+      <c r="C119" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="D119" s="180" t="s">
+      <c r="D119" s="213" t="s">
         <v>145</v>
       </c>
-      <c r="E119" s="252" t="s">
+      <c r="E119" s="249" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B120" s="250"/>
-      <c r="C120" s="250"/>
-      <c r="D120" s="181" t="s">
+      <c r="B120" s="247"/>
+      <c r="C120" s="247"/>
+      <c r="D120" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E120" s="253"/>
+      <c r="E120" s="250"/>
     </row>
     <row r="121" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B121" s="251"/>
-      <c r="C121" s="251"/>
-      <c r="D121" s="182"/>
-      <c r="E121" s="254"/>
+      <c r="B121" s="248"/>
+      <c r="C121" s="248"/>
+      <c r="D121" s="215"/>
+      <c r="E121" s="251"/>
     </row>
     <row r="122" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B122" s="249" t="s">
+      <c r="B122" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="C122" s="249" t="s">
+      <c r="C122" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="180" t="s">
+      <c r="D122" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="E122" s="252" t="s">
+      <c r="E122" s="249" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B123" s="250"/>
-      <c r="C123" s="250"/>
-      <c r="D123" s="181" t="s">
+      <c r="B123" s="247"/>
+      <c r="C123" s="247"/>
+      <c r="D123" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E123" s="253"/>
+      <c r="E123" s="250"/>
     </row>
     <row r="124" spans="2:5" ht="7.05" customHeight="1">
-      <c r="B124" s="251"/>
-      <c r="C124" s="251"/>
-      <c r="D124" s="182"/>
-      <c r="E124" s="254"/>
+      <c r="B124" s="248"/>
+      <c r="C124" s="248"/>
+      <c r="D124" s="215"/>
+      <c r="E124" s="251"/>
     </row>
     <row r="125" spans="2:5" ht="8.4" customHeight="1">
-      <c r="B125" s="249" t="s">
+      <c r="B125" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="C125" s="249" t="s">
+      <c r="C125" s="246" t="s">
         <v>142</v>
       </c>
-      <c r="D125" s="180" t="s">
+      <c r="D125" s="213" t="s">
         <v>367</v>
       </c>
-      <c r="E125" s="252" t="s">
+      <c r="E125" s="249" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="8.4" customHeight="1">
-      <c r="B126" s="250"/>
-      <c r="C126" s="250"/>
-      <c r="D126" s="181" t="s">
+      <c r="B126" s="247"/>
+      <c r="C126" s="247"/>
+      <c r="D126" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="E126" s="253"/>
+      <c r="E126" s="250"/>
     </row>
     <row r="127" spans="2:5" ht="7.2" customHeight="1">
-      <c r="B127" s="251"/>
-      <c r="C127" s="251"/>
-      <c r="D127" s="182"/>
-      <c r="E127" s="254"/>
+      <c r="B127" s="248"/>
+      <c r="C127" s="248"/>
+      <c r="D127" s="215"/>
+      <c r="E127" s="251"/>
     </row>
   </sheetData>
   <sortState ref="B3:E124">
     <sortCondition ref="B5:B124"/>
   </sortState>
   <mergeCells count="164">
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="B125:B127"/>
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="D125:D127"/>
@@ -20422,146 +20618,6 @@
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -20595,92 +20651,92 @@
   <sheetData>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="4:4">
@@ -20700,27 +20756,27 @@
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="4:4">
@@ -20730,42 +20786,42 @@
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="4:4">
@@ -20775,7 +20831,7 @@
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="4:4">
@@ -20800,7 +20856,7 @@
     </row>
     <row r="133" spans="4:31">
       <c r="D133" s="264" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E133" s="264"/>
       <c r="F133" s="264"/>
@@ -20814,10 +20870,10 @@
     </row>
     <row r="134" spans="4:31">
       <c r="D134" s="266" t="s">
+        <v>561</v>
+      </c>
+      <c r="E134" s="265" t="s">
         <v>562</v>
-      </c>
-      <c r="E134" s="265" t="s">
-        <v>563</v>
       </c>
       <c r="F134" s="265"/>
       <c r="G134" s="265"/>
@@ -21056,7 +21112,7 @@
     </row>
     <row r="138" spans="4:31">
       <c r="D138" s="61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E138" s="61"/>
       <c r="F138" s="61"/>
@@ -21084,7 +21140,7 @@
     </row>
     <row r="140" spans="4:31">
       <c r="D140" s="61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E140" s="61">
         <v>5</v>
@@ -21110,7 +21166,7 @@
     </row>
     <row r="141" spans="4:31">
       <c r="D141" s="61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E141" s="61"/>
       <c r="F141" s="61"/>
